--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220405.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220405.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12000"/>
+    <workbookView windowWidth="27240" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$571</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$531</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$571</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3693,13 +3693,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3760,18 +3760,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3789,11 +3790,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3805,11 +3814,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3818,59 +3826,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3890,10 +3845,55 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3972,13 +3972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,7 +3996,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,103 +4044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4116,19 +4056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,7 +4086,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4184,45 +4184,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4243,17 +4208,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4272,145 +4231,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4492,16 +4492,16 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,7 +4534,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,10 +4565,10 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4595,10 +4595,10 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4613,13 +4613,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4628,7 +4628,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4637,32 +4637,32 @@
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4674,19 +4674,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4742,15 +4742,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5097,15 +5089,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA352" sqref="AA352"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -5186,7 +5178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:40">
+    <row r="2" spans="1:40">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -5260,7 +5252,7 @@
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
     </row>
-    <row r="3" ht="41" hidden="1" spans="1:40">
+    <row r="3" ht="41" spans="1:40">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -5416,7 +5408,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:40">
+    <row r="5" spans="1:40">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -5470,7 +5462,7 @@
       <c r="AM5" s="28"/>
       <c r="AN5" s="37"/>
     </row>
-    <row r="6" hidden="1" spans="1:40">
+    <row r="6" spans="1:40">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -5524,7 +5516,7 @@
       <c r="AM6" s="28"/>
       <c r="AN6" s="37"/>
     </row>
-    <row r="7" hidden="1" spans="1:40">
+    <row r="7" spans="1:40">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -5578,7 +5570,7 @@
       <c r="AM7" s="28"/>
       <c r="AN7" s="37"/>
     </row>
-    <row r="8" hidden="1" spans="1:40">
+    <row r="8" spans="1:40">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -5632,7 +5624,7 @@
       <c r="AM8" s="28"/>
       <c r="AN8" s="37"/>
     </row>
-    <row r="9" hidden="1" spans="1:40">
+    <row r="9" spans="1:40">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -5686,7 +5678,7 @@
       <c r="AM9" s="28"/>
       <c r="AN9" s="37"/>
     </row>
-    <row r="10" hidden="1" spans="1:40">
+    <row r="10" spans="1:40">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -5740,7 +5732,7 @@
       <c r="AM10" s="28"/>
       <c r="AN10" s="37"/>
     </row>
-    <row r="11" hidden="1" spans="1:40">
+    <row r="11" spans="1:40">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -5794,7 +5786,7 @@
       <c r="AM11" s="28"/>
       <c r="AN11" s="37"/>
     </row>
-    <row r="12" hidden="1" spans="1:40">
+    <row r="12" spans="1:40">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -5848,7 +5840,7 @@
       <c r="AM12" s="28"/>
       <c r="AN12" s="37"/>
     </row>
-    <row r="13" hidden="1" spans="1:40">
+    <row r="13" spans="1:40">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -5902,7 +5894,7 @@
       <c r="AM13" s="28"/>
       <c r="AN13" s="37"/>
     </row>
-    <row r="14" hidden="1" spans="1:40">
+    <row r="14" spans="1:40">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -5956,7 +5948,7 @@
       <c r="AM14" s="28"/>
       <c r="AN14" s="37"/>
     </row>
-    <row r="15" hidden="1" spans="1:40">
+    <row r="15" spans="1:40">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -6010,7 +6002,7 @@
       <c r="AM15" s="28"/>
       <c r="AN15" s="37"/>
     </row>
-    <row r="16" hidden="1" spans="1:40">
+    <row r="16" spans="1:40">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -6064,7 +6056,7 @@
       <c r="AM16" s="28"/>
       <c r="AN16" s="37"/>
     </row>
-    <row r="17" hidden="1" spans="1:40">
+    <row r="17" spans="1:40">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -6172,7 +6164,7 @@
       <c r="AM18" s="28"/>
       <c r="AN18" s="37"/>
     </row>
-    <row r="19" hidden="1" spans="1:40">
+    <row r="19" spans="1:40">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -6226,7 +6218,7 @@
       <c r="AM19" s="28"/>
       <c r="AN19" s="37"/>
     </row>
-    <row r="20" hidden="1" spans="1:40">
+    <row r="20" spans="1:40">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6280,7 +6272,7 @@
       <c r="AM20" s="28"/>
       <c r="AN20" s="37"/>
     </row>
-    <row r="21" hidden="1" spans="1:40">
+    <row r="21" spans="1:40">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -6334,7 +6326,7 @@
       <c r="AM21" s="28"/>
       <c r="AN21" s="37"/>
     </row>
-    <row r="22" hidden="1" spans="1:40">
+    <row r="22" spans="1:40">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -6388,7 +6380,7 @@
       <c r="AM22" s="28"/>
       <c r="AN22" s="37"/>
     </row>
-    <row r="23" hidden="1" spans="1:40">
+    <row r="23" spans="1:40">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -6442,7 +6434,7 @@
       <c r="AM23" s="28"/>
       <c r="AN23" s="37"/>
     </row>
-    <row r="24" hidden="1" spans="1:40">
+    <row r="24" spans="1:40">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -6496,7 +6488,7 @@
       <c r="AM24" s="28"/>
       <c r="AN24" s="37"/>
     </row>
-    <row r="25" hidden="1" spans="1:40">
+    <row r="25" spans="1:40">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -6550,7 +6542,7 @@
       <c r="AM25" s="28"/>
       <c r="AN25" s="37"/>
     </row>
-    <row r="26" hidden="1" spans="1:40">
+    <row r="26" spans="1:40">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -6604,7 +6596,7 @@
       <c r="AM26" s="28"/>
       <c r="AN26" s="37"/>
     </row>
-    <row r="27" hidden="1" spans="1:40">
+    <row r="27" spans="1:40">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -6658,7 +6650,7 @@
       <c r="AM27" s="28"/>
       <c r="AN27" s="37"/>
     </row>
-    <row r="28" hidden="1" spans="1:40">
+    <row r="28" spans="1:40">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -6712,7 +6704,7 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="37"/>
     </row>
-    <row r="29" hidden="1" spans="1:40">
+    <row r="29" spans="1:40">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -6766,7 +6758,7 @@
       <c r="AM29" s="28"/>
       <c r="AN29" s="37"/>
     </row>
-    <row r="30" hidden="1" spans="1:40">
+    <row r="30" spans="1:40">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -6820,7 +6812,7 @@
       <c r="AM30" s="28"/>
       <c r="AN30" s="37"/>
     </row>
-    <row r="31" hidden="1" spans="1:40">
+    <row r="31" spans="1:40">
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
@@ -6874,7 +6866,7 @@
       <c r="AM31" s="28"/>
       <c r="AN31" s="37"/>
     </row>
-    <row r="32" hidden="1" spans="1:40">
+    <row r="32" spans="1:40">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -6928,7 +6920,7 @@
       <c r="AM32" s="28"/>
       <c r="AN32" s="37"/>
     </row>
-    <row r="33" hidden="1" spans="1:40">
+    <row r="33" spans="1:40">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -7036,7 +7028,7 @@
       <c r="AM34" s="28"/>
       <c r="AN34" s="37"/>
     </row>
-    <row r="35" hidden="1" spans="1:40">
+    <row r="35" spans="1:40">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -7090,7 +7082,7 @@
       <c r="AM35" s="28"/>
       <c r="AN35" s="37"/>
     </row>
-    <row r="36" hidden="1" spans="1:40">
+    <row r="36" spans="1:40">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -7144,7 +7136,7 @@
       <c r="AM36" s="28"/>
       <c r="AN36" s="37"/>
     </row>
-    <row r="37" hidden="1" spans="1:40">
+    <row r="37" spans="1:40">
       <c r="A37" s="2" t="s">
         <v>111</v>
       </c>
@@ -7198,7 +7190,7 @@
       <c r="AM37" s="28"/>
       <c r="AN37" s="37"/>
     </row>
-    <row r="38" hidden="1" spans="1:40">
+    <row r="38" spans="1:40">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -7252,7 +7244,7 @@
       <c r="AM38" s="28"/>
       <c r="AN38" s="37"/>
     </row>
-    <row r="39" hidden="1" spans="1:40">
+    <row r="39" spans="1:40">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -7306,7 +7298,7 @@
       <c r="AM39" s="28"/>
       <c r="AN39" s="37"/>
     </row>
-    <row r="40" hidden="1" spans="1:40">
+    <row r="40" spans="1:40">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -7360,7 +7352,7 @@
       <c r="AM40" s="28"/>
       <c r="AN40" s="37"/>
     </row>
-    <row r="41" hidden="1" spans="1:40">
+    <row r="41" spans="1:40">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -7414,7 +7406,7 @@
       <c r="AM41" s="28"/>
       <c r="AN41" s="37"/>
     </row>
-    <row r="42" hidden="1" spans="1:40">
+    <row r="42" spans="1:40">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -7468,7 +7460,7 @@
       <c r="AM42" s="28"/>
       <c r="AN42" s="37"/>
     </row>
-    <row r="43" hidden="1" spans="1:40">
+    <row r="43" spans="1:40">
       <c r="A43" s="2" t="s">
         <v>123</v>
       </c>
@@ -7522,7 +7514,7 @@
       <c r="AM43" s="28"/>
       <c r="AN43" s="37"/>
     </row>
-    <row r="44" hidden="1" spans="1:40">
+    <row r="44" spans="1:40">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -7576,7 +7568,7 @@
       <c r="AM44" s="28"/>
       <c r="AN44" s="37"/>
     </row>
-    <row r="45" hidden="1" spans="1:40">
+    <row r="45" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -7630,7 +7622,7 @@
       <c r="AM45" s="28"/>
       <c r="AN45" s="37"/>
     </row>
-    <row r="46" hidden="1" spans="1:40">
+    <row r="46" spans="1:40">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -7684,7 +7676,7 @@
       <c r="AM46" s="28"/>
       <c r="AN46" s="37"/>
     </row>
-    <row r="47" hidden="1" spans="1:40">
+    <row r="47" spans="1:40">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -7738,7 +7730,7 @@
       <c r="AM47" s="28"/>
       <c r="AN47" s="37"/>
     </row>
-    <row r="48" hidden="1" spans="1:40">
+    <row r="48" spans="1:40">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -7792,7 +7784,7 @@
       <c r="AM48" s="28"/>
       <c r="AN48" s="37"/>
     </row>
-    <row r="49" hidden="1" spans="1:40">
+    <row r="49" spans="1:40">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -7846,7 +7838,7 @@
       <c r="AM49" s="28"/>
       <c r="AN49" s="37"/>
     </row>
-    <row r="50" hidden="1" spans="1:40">
+    <row r="50" spans="1:40">
       <c r="A50" s="2" t="s">
         <v>137</v>
       </c>
@@ -7900,7 +7892,7 @@
       <c r="AM50" s="28"/>
       <c r="AN50" s="37"/>
     </row>
-    <row r="51" hidden="1" spans="1:40">
+    <row r="51" spans="1:40">
       <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
@@ -7954,7 +7946,7 @@
       <c r="AM51" s="28"/>
       <c r="AN51" s="37"/>
     </row>
-    <row r="52" hidden="1" spans="1:40">
+    <row r="52" spans="1:40">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -8008,7 +8000,7 @@
       <c r="AM52" s="28"/>
       <c r="AN52" s="37"/>
     </row>
-    <row r="53" hidden="1" spans="1:40">
+    <row r="53" spans="1:40">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -8062,7 +8054,7 @@
       <c r="AM53" s="28"/>
       <c r="AN53" s="37"/>
     </row>
-    <row r="54" hidden="1" spans="1:40">
+    <row r="54" spans="1:40">
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
@@ -8116,7 +8108,7 @@
       <c r="AM54" s="28"/>
       <c r="AN54" s="37"/>
     </row>
-    <row r="55" hidden="1" spans="1:40">
+    <row r="55" spans="1:40">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -8170,7 +8162,7 @@
       <c r="AM55" s="28"/>
       <c r="AN55" s="37"/>
     </row>
-    <row r="56" hidden="1" spans="1:40">
+    <row r="56" spans="1:40">
       <c r="A56" s="2" t="s">
         <v>149</v>
       </c>
@@ -8224,7 +8216,7 @@
       <c r="AM56" s="28"/>
       <c r="AN56" s="37"/>
     </row>
-    <row r="57" hidden="1" spans="1:40">
+    <row r="57" spans="1:40">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -8278,7 +8270,7 @@
       <c r="AM57" s="28"/>
       <c r="AN57" s="37"/>
     </row>
-    <row r="58" hidden="1" spans="1:40">
+    <row r="58" spans="1:40">
       <c r="A58" s="2" t="s">
         <v>153</v>
       </c>
@@ -8408,7 +8400,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:40">
+    <row r="60" spans="1:40">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -8462,7 +8454,7 @@
       <c r="AM60" s="28"/>
       <c r="AN60" s="37"/>
     </row>
-    <row r="61" hidden="1" spans="1:40">
+    <row r="61" spans="1:40">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -8516,7 +8508,7 @@
       <c r="AM61" s="28"/>
       <c r="AN61" s="37"/>
     </row>
-    <row r="62" hidden="1" spans="1:40">
+    <row r="62" spans="1:40">
       <c r="A62" s="2" t="s">
         <v>161</v>
       </c>
@@ -8570,7 +8562,7 @@
       <c r="AM62" s="28"/>
       <c r="AN62" s="37"/>
     </row>
-    <row r="63" hidden="1" spans="1:40">
+    <row r="63" spans="1:40">
       <c r="A63" s="2" t="s">
         <v>163</v>
       </c>
@@ -8624,7 +8616,7 @@
       <c r="AM63" s="28"/>
       <c r="AN63" s="37"/>
     </row>
-    <row r="64" hidden="1" spans="1:40">
+    <row r="64" spans="1:40">
       <c r="A64" s="2" t="s">
         <v>165</v>
       </c>
@@ -8678,7 +8670,7 @@
       <c r="AM64" s="28"/>
       <c r="AN64" s="37"/>
     </row>
-    <row r="65" hidden="1" spans="1:40">
+    <row r="65" spans="1:40">
       <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
@@ -8732,7 +8724,7 @@
       <c r="AM65" s="28"/>
       <c r="AN65" s="37"/>
     </row>
-    <row r="66" hidden="1" spans="1:40">
+    <row r="66" spans="1:40">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -8786,7 +8778,7 @@
       <c r="AM66" s="28"/>
       <c r="AN66" s="37"/>
     </row>
-    <row r="67" hidden="1" spans="1:40">
+    <row r="67" spans="1:40">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -8840,7 +8832,7 @@
       <c r="AM67" s="28"/>
       <c r="AN67" s="37"/>
     </row>
-    <row r="68" hidden="1" spans="1:40">
+    <row r="68" spans="1:40">
       <c r="A68" s="2" t="s">
         <v>173</v>
       </c>
@@ -8894,7 +8886,7 @@
       <c r="AM68" s="28"/>
       <c r="AN68" s="37"/>
     </row>
-    <row r="69" hidden="1" spans="1:40">
+    <row r="69" spans="1:40">
       <c r="A69" s="2" t="s">
         <v>175</v>
       </c>
@@ -8948,7 +8940,7 @@
       <c r="AM69" s="28"/>
       <c r="AN69" s="37"/>
     </row>
-    <row r="70" hidden="1" spans="1:40">
+    <row r="70" spans="1:40">
       <c r="A70" s="2" t="s">
         <v>177</v>
       </c>
@@ -9002,7 +8994,7 @@
       <c r="AM70" s="28"/>
       <c r="AN70" s="37"/>
     </row>
-    <row r="71" hidden="1" spans="1:40">
+    <row r="71" spans="1:40">
       <c r="A71" s="2" t="s">
         <v>179</v>
       </c>
@@ -9056,7 +9048,7 @@
       <c r="AM71" s="28"/>
       <c r="AN71" s="37"/>
     </row>
-    <row r="72" hidden="1" spans="1:40">
+    <row r="72" spans="1:40">
       <c r="A72" s="2" t="s">
         <v>181</v>
       </c>
@@ -9110,7 +9102,7 @@
       <c r="AM72" s="28"/>
       <c r="AN72" s="37"/>
     </row>
-    <row r="73" hidden="1" spans="1:40">
+    <row r="73" spans="1:40">
       <c r="A73" s="2" t="s">
         <v>183</v>
       </c>
@@ -9164,7 +9156,7 @@
       <c r="AM73" s="28"/>
       <c r="AN73" s="37"/>
     </row>
-    <row r="74" hidden="1" spans="1:40">
+    <row r="74" spans="1:40">
       <c r="A74" s="2" t="s">
         <v>185</v>
       </c>
@@ -9218,7 +9210,7 @@
       <c r="AM74" s="28"/>
       <c r="AN74" s="37"/>
     </row>
-    <row r="75" hidden="1" spans="1:40">
+    <row r="75" spans="1:40">
       <c r="A75" s="39" t="s">
         <v>187</v>
       </c>
@@ -9272,7 +9264,7 @@
       <c r="AM75" s="28"/>
       <c r="AN75" s="37"/>
     </row>
-    <row r="76" hidden="1" spans="1:40">
+    <row r="76" spans="1:40">
       <c r="A76" s="2" t="s">
         <v>189</v>
       </c>
@@ -9326,7 +9318,7 @@
       <c r="AM76" s="28"/>
       <c r="AN76" s="37"/>
     </row>
-    <row r="77" hidden="1" spans="1:40">
+    <row r="77" spans="1:40">
       <c r="A77" s="2" t="s">
         <v>191</v>
       </c>
@@ -9380,7 +9372,7 @@
       <c r="AM77" s="28"/>
       <c r="AN77" s="37"/>
     </row>
-    <row r="78" hidden="1" spans="1:40">
+    <row r="78" spans="1:40">
       <c r="A78" s="2" t="s">
         <v>193</v>
       </c>
@@ -9434,7 +9426,7 @@
       <c r="AM78" s="28"/>
       <c r="AN78" s="37"/>
     </row>
-    <row r="79" hidden="1" spans="1:40">
+    <row r="79" spans="1:40">
       <c r="A79" s="2" t="s">
         <v>195</v>
       </c>
@@ -9488,7 +9480,7 @@
       <c r="AM79" s="28"/>
       <c r="AN79" s="37"/>
     </row>
-    <row r="80" hidden="1" spans="1:40">
+    <row r="80" spans="1:40">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -9542,7 +9534,7 @@
       <c r="AM80" s="28"/>
       <c r="AN80" s="37"/>
     </row>
-    <row r="81" hidden="1" spans="1:40">
+    <row r="81" spans="1:40">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -9596,7 +9588,7 @@
       <c r="AM81" s="28"/>
       <c r="AN81" s="37"/>
     </row>
-    <row r="82" hidden="1" spans="1:40">
+    <row r="82" spans="1:40">
       <c r="A82" s="2" t="s">
         <v>201</v>
       </c>
@@ -9650,7 +9642,7 @@
       <c r="AM82" s="28"/>
       <c r="AN82" s="37"/>
     </row>
-    <row r="83" hidden="1" spans="1:40">
+    <row r="83" spans="1:40">
       <c r="A83" s="2" t="s">
         <v>203</v>
       </c>
@@ -9704,7 +9696,7 @@
       <c r="AM83" s="28"/>
       <c r="AN83" s="37"/>
     </row>
-    <row r="84" hidden="1" spans="1:40">
+    <row r="84" spans="1:40">
       <c r="A84" s="2" t="s">
         <v>205</v>
       </c>
@@ -9758,7 +9750,7 @@
       <c r="AM84" s="28"/>
       <c r="AN84" s="37"/>
     </row>
-    <row r="85" hidden="1" spans="1:40">
+    <row r="85" spans="1:40">
       <c r="A85" s="2" t="s">
         <v>207</v>
       </c>
@@ -9812,7 +9804,7 @@
       <c r="AM85" s="28"/>
       <c r="AN85" s="37"/>
     </row>
-    <row r="86" hidden="1" spans="1:40">
+    <row r="86" spans="1:40">
       <c r="A86" s="2" t="s">
         <v>209</v>
       </c>
@@ -9920,7 +9912,7 @@
       <c r="AM87" s="28"/>
       <c r="AN87" s="37"/>
     </row>
-    <row r="88" hidden="1" spans="1:40">
+    <row r="88" spans="1:40">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -9974,7 +9966,7 @@
       <c r="AM88" s="28"/>
       <c r="AN88" s="37"/>
     </row>
-    <row r="89" hidden="1" spans="1:40">
+    <row r="89" spans="1:40">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -10028,7 +10020,7 @@
       <c r="AM89" s="28"/>
       <c r="AN89" s="37"/>
     </row>
-    <row r="90" hidden="1" spans="1:40">
+    <row r="90" spans="1:40">
       <c r="A90" s="2" t="s">
         <v>217</v>
       </c>
@@ -10082,7 +10074,7 @@
       <c r="AM90" s="28"/>
       <c r="AN90" s="37"/>
     </row>
-    <row r="91" hidden="1" spans="1:40">
+    <row r="91" spans="1:40">
       <c r="A91" s="2" t="s">
         <v>219</v>
       </c>
@@ -10136,7 +10128,7 @@
       <c r="AM91" s="28"/>
       <c r="AN91" s="37"/>
     </row>
-    <row r="92" hidden="1" spans="1:40">
+    <row r="92" spans="1:40">
       <c r="A92" s="2" t="s">
         <v>221</v>
       </c>
@@ -10190,7 +10182,7 @@
       <c r="AM92" s="28"/>
       <c r="AN92" s="37"/>
     </row>
-    <row r="93" hidden="1" spans="1:40">
+    <row r="93" spans="1:40">
       <c r="A93" s="2" t="s">
         <v>223</v>
       </c>
@@ -10244,7 +10236,7 @@
       <c r="AM93" s="28"/>
       <c r="AN93" s="37"/>
     </row>
-    <row r="94" hidden="1" spans="1:40">
+    <row r="94" spans="1:40">
       <c r="A94" s="2" t="s">
         <v>225</v>
       </c>
@@ -10298,7 +10290,7 @@
       <c r="AM94" s="28"/>
       <c r="AN94" s="37"/>
     </row>
-    <row r="95" hidden="1" spans="1:40">
+    <row r="95" spans="1:40">
       <c r="A95" s="2" t="s">
         <v>227</v>
       </c>
@@ -10352,7 +10344,7 @@
       <c r="AM95" s="28"/>
       <c r="AN95" s="37"/>
     </row>
-    <row r="96" hidden="1" spans="1:40">
+    <row r="96" spans="1:40">
       <c r="A96" s="2" t="s">
         <v>229</v>
       </c>
@@ -10406,7 +10398,7 @@
       <c r="AM96" s="28"/>
       <c r="AN96" s="37"/>
     </row>
-    <row r="97" hidden="1" spans="1:40">
+    <row r="97" spans="1:40">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -10460,7 +10452,7 @@
       <c r="AM97" s="28"/>
       <c r="AN97" s="37"/>
     </row>
-    <row r="98" hidden="1" spans="1:40">
+    <row r="98" spans="1:40">
       <c r="A98" s="2" t="s">
         <v>233</v>
       </c>
@@ -10514,7 +10506,7 @@
       <c r="AM98" s="28"/>
       <c r="AN98" s="37"/>
     </row>
-    <row r="99" hidden="1" spans="1:40">
+    <row r="99" spans="1:40">
       <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
@@ -10568,7 +10560,7 @@
       <c r="AM99" s="28"/>
       <c r="AN99" s="37"/>
     </row>
-    <row r="100" hidden="1" spans="1:40">
+    <row r="100" spans="1:40">
       <c r="A100" s="2" t="s">
         <v>237</v>
       </c>
@@ -10622,7 +10614,7 @@
       <c r="AM100" s="28"/>
       <c r="AN100" s="37"/>
     </row>
-    <row r="101" hidden="1" spans="1:40">
+    <row r="101" spans="1:40">
       <c r="A101" s="2" t="s">
         <v>239</v>
       </c>
@@ -10676,7 +10668,7 @@
       <c r="AM101" s="28"/>
       <c r="AN101" s="37"/>
     </row>
-    <row r="102" hidden="1" spans="1:40">
+    <row r="102" spans="1:40">
       <c r="A102" s="2" t="s">
         <v>241</v>
       </c>
@@ -10730,7 +10722,7 @@
       <c r="AM102" s="28"/>
       <c r="AN102" s="37"/>
     </row>
-    <row r="103" hidden="1" spans="1:40">
+    <row r="103" spans="1:40">
       <c r="A103" s="2" t="s">
         <v>243</v>
       </c>
@@ -10784,7 +10776,7 @@
       <c r="AM103" s="28"/>
       <c r="AN103" s="37"/>
     </row>
-    <row r="104" hidden="1" spans="1:40">
+    <row r="104" spans="1:40">
       <c r="A104" s="2" t="s">
         <v>245</v>
       </c>
@@ -10892,7 +10884,7 @@
       <c r="AM105" s="28"/>
       <c r="AN105" s="37"/>
     </row>
-    <row r="106" hidden="1" spans="1:40">
+    <row r="106" spans="1:40">
       <c r="A106" s="2" t="s">
         <v>249</v>
       </c>
@@ -10946,7 +10938,7 @@
       <c r="AM106" s="28"/>
       <c r="AN106" s="37"/>
     </row>
-    <row r="107" hidden="1" spans="1:40">
+    <row r="107" spans="1:40">
       <c r="A107" s="2" t="s">
         <v>251</v>
       </c>
@@ -11000,7 +10992,7 @@
       <c r="AM107" s="28"/>
       <c r="AN107" s="37"/>
     </row>
-    <row r="108" hidden="1" spans="1:40">
+    <row r="108" spans="1:40">
       <c r="A108" s="2" t="s">
         <v>253</v>
       </c>
@@ -11054,7 +11046,7 @@
       <c r="AM108" s="28"/>
       <c r="AN108" s="37"/>
     </row>
-    <row r="109" hidden="1" spans="1:40">
+    <row r="109" spans="1:40">
       <c r="A109" s="2" t="s">
         <v>255</v>
       </c>
@@ -11108,7 +11100,7 @@
       <c r="AM109" s="28"/>
       <c r="AN109" s="37"/>
     </row>
-    <row r="110" hidden="1" spans="1:40">
+    <row r="110" spans="1:40">
       <c r="A110" s="2" t="s">
         <v>257</v>
       </c>
@@ -11162,7 +11154,7 @@
       <c r="AM110" s="28"/>
       <c r="AN110" s="37"/>
     </row>
-    <row r="111" hidden="1" spans="1:40">
+    <row r="111" spans="1:40">
       <c r="A111" s="2" t="s">
         <v>259</v>
       </c>
@@ -11216,7 +11208,7 @@
       <c r="AM111" s="28"/>
       <c r="AN111" s="37"/>
     </row>
-    <row r="112" hidden="1" spans="1:40">
+    <row r="112" spans="1:40">
       <c r="A112" s="2" t="s">
         <v>261</v>
       </c>
@@ -11270,7 +11262,7 @@
       <c r="AM112" s="28"/>
       <c r="AN112" s="37"/>
     </row>
-    <row r="113" hidden="1" spans="1:40">
+    <row r="113" spans="1:40">
       <c r="A113" s="2" t="s">
         <v>263</v>
       </c>
@@ -11324,7 +11316,7 @@
       <c r="AM113" s="28"/>
       <c r="AN113" s="37"/>
     </row>
-    <row r="114" hidden="1" spans="1:40">
+    <row r="114" spans="1:40">
       <c r="A114" s="2" t="s">
         <v>265</v>
       </c>
@@ -11378,7 +11370,7 @@
       <c r="AM114" s="28"/>
       <c r="AN114" s="37"/>
     </row>
-    <row r="115" hidden="1" spans="1:40">
+    <row r="115" spans="1:40">
       <c r="A115" s="2" t="s">
         <v>267</v>
       </c>
@@ -11432,7 +11424,7 @@
       <c r="AM115" s="28"/>
       <c r="AN115" s="37"/>
     </row>
-    <row r="116" hidden="1" spans="1:40">
+    <row r="116" spans="1:40">
       <c r="A116" s="2" t="s">
         <v>269</v>
       </c>
@@ -11486,7 +11478,7 @@
       <c r="AM116" s="28"/>
       <c r="AN116" s="37"/>
     </row>
-    <row r="117" hidden="1" spans="1:40">
+    <row r="117" spans="1:40">
       <c r="A117" s="2" t="s">
         <v>271</v>
       </c>
@@ -11540,7 +11532,7 @@
       <c r="AM117" s="28"/>
       <c r="AN117" s="37"/>
     </row>
-    <row r="118" hidden="1" spans="1:40">
+    <row r="118" spans="1:40">
       <c r="A118" s="2" t="s">
         <v>273</v>
       </c>
@@ -11594,7 +11586,7 @@
       <c r="AM118" s="28"/>
       <c r="AN118" s="37"/>
     </row>
-    <row r="119" hidden="1" spans="1:40">
+    <row r="119" spans="1:40">
       <c r="A119" s="2" t="s">
         <v>275</v>
       </c>
@@ -11648,7 +11640,7 @@
       <c r="AM119" s="28"/>
       <c r="AN119" s="37"/>
     </row>
-    <row r="120" hidden="1" spans="1:40">
+    <row r="120" spans="1:40">
       <c r="A120" s="2" t="s">
         <v>277</v>
       </c>
@@ -11702,7 +11694,7 @@
       <c r="AM120" s="28"/>
       <c r="AN120" s="37"/>
     </row>
-    <row r="121" hidden="1" spans="1:40">
+    <row r="121" spans="1:40">
       <c r="A121" s="2" t="s">
         <v>279</v>
       </c>
@@ -11756,7 +11748,7 @@
       <c r="AM121" s="28"/>
       <c r="AN121" s="37"/>
     </row>
-    <row r="122" hidden="1" spans="1:40">
+    <row r="122" spans="1:40">
       <c r="A122" s="2" t="s">
         <v>281</v>
       </c>
@@ -11810,7 +11802,7 @@
       <c r="AM122" s="28"/>
       <c r="AN122" s="37"/>
     </row>
-    <row r="123" hidden="1" spans="1:40">
+    <row r="123" spans="1:40">
       <c r="A123" s="2" t="s">
         <v>283</v>
       </c>
@@ -11864,7 +11856,7 @@
       <c r="AM123" s="28"/>
       <c r="AN123" s="37"/>
     </row>
-    <row r="124" hidden="1" spans="1:40">
+    <row r="124" spans="1:40">
       <c r="A124" s="2" t="s">
         <v>285</v>
       </c>
@@ -11918,7 +11910,7 @@
       <c r="AM124" s="28"/>
       <c r="AN124" s="37"/>
     </row>
-    <row r="125" hidden="1" spans="1:40">
+    <row r="125" spans="1:40">
       <c r="A125" s="2" t="s">
         <v>287</v>
       </c>
@@ -11972,7 +11964,7 @@
       <c r="AM125" s="28"/>
       <c r="AN125" s="37"/>
     </row>
-    <row r="126" hidden="1" spans="1:40">
+    <row r="126" spans="1:40">
       <c r="A126" s="2" t="s">
         <v>289</v>
       </c>
@@ -12026,7 +12018,7 @@
       <c r="AM126" s="28"/>
       <c r="AN126" s="37"/>
     </row>
-    <row r="127" hidden="1" spans="1:40">
+    <row r="127" spans="1:40">
       <c r="A127" s="2" t="s">
         <v>291</v>
       </c>
@@ -12080,7 +12072,7 @@
       <c r="AM127" s="28"/>
       <c r="AN127" s="37"/>
     </row>
-    <row r="128" hidden="1" spans="1:40">
+    <row r="128" spans="1:40">
       <c r="A128" s="2" t="s">
         <v>293</v>
       </c>
@@ -12134,7 +12126,7 @@
       <c r="AM128" s="28"/>
       <c r="AN128" s="37"/>
     </row>
-    <row r="129" hidden="1" spans="1:40">
+    <row r="129" spans="1:40">
       <c r="A129" s="2" t="s">
         <v>295</v>
       </c>
@@ -12188,7 +12180,7 @@
       <c r="AM129" s="28"/>
       <c r="AN129" s="37"/>
     </row>
-    <row r="130" hidden="1" spans="1:40">
+    <row r="130" spans="1:40">
       <c r="A130" s="2" t="s">
         <v>297</v>
       </c>
@@ -12242,7 +12234,7 @@
       <c r="AM130" s="28"/>
       <c r="AN130" s="37"/>
     </row>
-    <row r="131" hidden="1" spans="1:40">
+    <row r="131" spans="1:40">
       <c r="A131" s="2" t="s">
         <v>299</v>
       </c>
@@ -12296,7 +12288,7 @@
       <c r="AM131" s="28"/>
       <c r="AN131" s="37"/>
     </row>
-    <row r="132" hidden="1" spans="1:40">
+    <row r="132" spans="1:40">
       <c r="A132" s="2" t="s">
         <v>301</v>
       </c>
@@ -12350,7 +12342,7 @@
       <c r="AM132" s="28"/>
       <c r="AN132" s="37"/>
     </row>
-    <row r="133" hidden="1" spans="1:40">
+    <row r="133" spans="1:40">
       <c r="A133" s="2" t="s">
         <v>303</v>
       </c>
@@ -12404,7 +12396,7 @@
       <c r="AM133" s="28"/>
       <c r="AN133" s="37"/>
     </row>
-    <row r="134" hidden="1" spans="1:40">
+    <row r="134" spans="1:40">
       <c r="A134" s="2" t="s">
         <v>305</v>
       </c>
@@ -12458,7 +12450,7 @@
       <c r="AM134" s="28"/>
       <c r="AN134" s="37"/>
     </row>
-    <row r="135" hidden="1" spans="1:40">
+    <row r="135" spans="1:40">
       <c r="A135" s="2" t="s">
         <v>307</v>
       </c>
@@ -12598,7 +12590,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:40">
+    <row r="137" spans="1:40">
       <c r="A137" s="2" t="s">
         <v>311</v>
       </c>
@@ -12652,7 +12644,7 @@
       <c r="AM137" s="28"/>
       <c r="AN137" s="37"/>
     </row>
-    <row r="138" hidden="1" spans="1:40">
+    <row r="138" spans="1:40">
       <c r="A138" s="2" t="s">
         <v>313</v>
       </c>
@@ -12760,7 +12752,7 @@
       <c r="AM139" s="28"/>
       <c r="AN139" s="37"/>
     </row>
-    <row r="140" hidden="1" spans="1:40">
+    <row r="140" spans="1:40">
       <c r="A140" s="2" t="s">
         <v>317</v>
       </c>
@@ -12814,7 +12806,7 @@
       <c r="AM140" s="28"/>
       <c r="AN140" s="37"/>
     </row>
-    <row r="141" hidden="1" spans="1:40">
+    <row r="141" spans="1:40">
       <c r="A141" s="2" t="s">
         <v>319</v>
       </c>
@@ -12868,7 +12860,7 @@
       <c r="AM141" s="28"/>
       <c r="AN141" s="37"/>
     </row>
-    <row r="142" hidden="1" spans="1:40">
+    <row r="142" spans="1:40">
       <c r="A142" s="2" t="s">
         <v>321</v>
       </c>
@@ -12922,7 +12914,7 @@
       <c r="AM142" s="28"/>
       <c r="AN142" s="37"/>
     </row>
-    <row r="143" hidden="1" spans="1:40">
+    <row r="143" spans="1:40">
       <c r="A143" s="2" t="s">
         <v>323</v>
       </c>
@@ -12976,7 +12968,7 @@
       <c r="AM143" s="28"/>
       <c r="AN143" s="37"/>
     </row>
-    <row r="144" hidden="1" spans="1:40">
+    <row r="144" spans="1:40">
       <c r="A144" s="2" t="s">
         <v>325</v>
       </c>
@@ -13084,7 +13076,7 @@
       <c r="AM145" s="28"/>
       <c r="AN145" s="37"/>
     </row>
-    <row r="146" hidden="1" spans="1:40">
+    <row r="146" spans="1:40">
       <c r="A146" s="2" t="s">
         <v>329</v>
       </c>
@@ -13214,7 +13206,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:40">
+    <row r="148" spans="1:40">
       <c r="A148" s="2" t="s">
         <v>333</v>
       </c>
@@ -13268,7 +13260,7 @@
       <c r="AM148" s="28"/>
       <c r="AN148" s="37"/>
     </row>
-    <row r="149" hidden="1" spans="1:40">
+    <row r="149" spans="1:40">
       <c r="A149" s="2" t="s">
         <v>335</v>
       </c>
@@ -13322,7 +13314,7 @@
       <c r="AM149" s="28"/>
       <c r="AN149" s="37"/>
     </row>
-    <row r="150" hidden="1" spans="1:40">
+    <row r="150" spans="1:40">
       <c r="A150" s="2" t="s">
         <v>337</v>
       </c>
@@ -13376,7 +13368,7 @@
       <c r="AM150" s="28"/>
       <c r="AN150" s="37"/>
     </row>
-    <row r="151" hidden="1" spans="1:40">
+    <row r="151" spans="1:40">
       <c r="A151" s="2" t="s">
         <v>339</v>
       </c>
@@ -13430,7 +13422,7 @@
       <c r="AM151" s="28"/>
       <c r="AN151" s="37"/>
     </row>
-    <row r="152" hidden="1" spans="1:40">
+    <row r="152" spans="1:40">
       <c r="A152" s="2" t="s">
         <v>341</v>
       </c>
@@ -13484,7 +13476,7 @@
       <c r="AM152" s="28"/>
       <c r="AN152" s="37"/>
     </row>
-    <row r="153" hidden="1" spans="1:40">
+    <row r="153" spans="1:40">
       <c r="A153" s="2" t="s">
         <v>343</v>
       </c>
@@ -13538,7 +13530,7 @@
       <c r="AM153" s="28"/>
       <c r="AN153" s="37"/>
     </row>
-    <row r="154" hidden="1" spans="1:40">
+    <row r="154" spans="1:40">
       <c r="A154" s="2" t="s">
         <v>345</v>
       </c>
@@ -13592,7 +13584,7 @@
       <c r="AM154" s="28"/>
       <c r="AN154" s="37"/>
     </row>
-    <row r="155" hidden="1" spans="1:40">
+    <row r="155" spans="1:40">
       <c r="A155" s="2" t="s">
         <v>347</v>
       </c>
@@ -13646,7 +13638,7 @@
       <c r="AM155" s="28"/>
       <c r="AN155" s="37"/>
     </row>
-    <row r="156" hidden="1" spans="1:40">
+    <row r="156" spans="1:40">
       <c r="A156" s="2" t="s">
         <v>349</v>
       </c>
@@ -13754,7 +13746,7 @@
       <c r="AM157" s="28"/>
       <c r="AN157" s="37"/>
     </row>
-    <row r="158" hidden="1" spans="1:40">
+    <row r="158" spans="1:40">
       <c r="A158" s="2" t="s">
         <v>353</v>
       </c>
@@ -13879,7 +13871,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:40">
+    <row r="160" spans="1:40">
       <c r="A160" s="2" t="s">
         <v>357</v>
       </c>
@@ -13933,7 +13925,7 @@
       <c r="AM160" s="28"/>
       <c r="AN160" s="37"/>
     </row>
-    <row r="161" hidden="1" spans="1:40">
+    <row r="161" spans="1:40">
       <c r="A161" s="2" t="s">
         <v>359</v>
       </c>
@@ -13987,7 +13979,7 @@
       <c r="AM161" s="28"/>
       <c r="AN161" s="37"/>
     </row>
-    <row r="162" hidden="1" spans="1:40">
+    <row r="162" spans="1:40">
       <c r="A162" s="2" t="s">
         <v>361</v>
       </c>
@@ -14041,7 +14033,7 @@
       <c r="AM162" s="28"/>
       <c r="AN162" s="37"/>
     </row>
-    <row r="163" hidden="1" spans="1:40">
+    <row r="163" spans="1:40">
       <c r="A163" s="2" t="s">
         <v>363</v>
       </c>
@@ -14095,7 +14087,7 @@
       <c r="AM163" s="28"/>
       <c r="AN163" s="37"/>
     </row>
-    <row r="164" hidden="1" spans="1:40">
+    <row r="164" spans="1:40">
       <c r="A164" s="2" t="s">
         <v>365</v>
       </c>
@@ -14149,7 +14141,7 @@
       <c r="AM164" s="28"/>
       <c r="AN164" s="37"/>
     </row>
-    <row r="165" hidden="1" spans="1:40">
+    <row r="165" spans="1:40">
       <c r="A165" s="2" t="s">
         <v>367</v>
       </c>
@@ -14203,7 +14195,7 @@
       <c r="AM165" s="28"/>
       <c r="AN165" s="37"/>
     </row>
-    <row r="166" hidden="1" spans="1:40">
+    <row r="166" spans="1:40">
       <c r="A166" s="2" t="s">
         <v>369</v>
       </c>
@@ -14257,7 +14249,7 @@
       <c r="AM166" s="28"/>
       <c r="AN166" s="37"/>
     </row>
-    <row r="167" hidden="1" spans="1:40">
+    <row r="167" spans="1:40">
       <c r="A167" s="2" t="s">
         <v>371</v>
       </c>
@@ -14311,7 +14303,7 @@
       <c r="AM167" s="28"/>
       <c r="AN167" s="37"/>
     </row>
-    <row r="168" hidden="1" spans="1:40">
+    <row r="168" spans="1:40">
       <c r="A168" s="2" t="s">
         <v>373</v>
       </c>
@@ -14365,7 +14357,7 @@
       <c r="AM168" s="28"/>
       <c r="AN168" s="37"/>
     </row>
-    <row r="169" hidden="1" spans="1:40">
+    <row r="169" spans="1:40">
       <c r="A169" s="2" t="s">
         <v>375</v>
       </c>
@@ -14419,7 +14411,7 @@
       <c r="AM169" s="28"/>
       <c r="AN169" s="37"/>
     </row>
-    <row r="170" hidden="1" spans="1:40">
+    <row r="170" spans="1:40">
       <c r="A170" s="2" t="s">
         <v>377</v>
       </c>
@@ -14473,7 +14465,7 @@
       <c r="AM170" s="28"/>
       <c r="AN170" s="37"/>
     </row>
-    <row r="171" hidden="1" spans="1:40">
+    <row r="171" spans="1:40">
       <c r="A171" s="2" t="s">
         <v>379</v>
       </c>
@@ -14527,7 +14519,7 @@
       <c r="AM171" s="28"/>
       <c r="AN171" s="37"/>
     </row>
-    <row r="172" hidden="1" spans="1:40">
+    <row r="172" spans="1:40">
       <c r="A172" s="2" t="s">
         <v>381</v>
       </c>
@@ -14581,7 +14573,7 @@
       <c r="AM172" s="28"/>
       <c r="AN172" s="37"/>
     </row>
-    <row r="173" hidden="1" spans="1:40">
+    <row r="173" spans="1:40">
       <c r="A173" s="2" t="s">
         <v>383</v>
       </c>
@@ -14726,7 +14718,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:40">
+    <row r="175" spans="1:40">
       <c r="A175" s="2" t="s">
         <v>388</v>
       </c>
@@ -14780,7 +14772,7 @@
       <c r="AM175" s="28"/>
       <c r="AN175" s="37"/>
     </row>
-    <row r="176" hidden="1" spans="1:40">
+    <row r="176" spans="1:40">
       <c r="A176" s="2" t="s">
         <v>390</v>
       </c>
@@ -14834,7 +14826,7 @@
       <c r="AM176" s="28"/>
       <c r="AN176" s="37"/>
     </row>
-    <row r="177" hidden="1" spans="1:40">
+    <row r="177" spans="1:40">
       <c r="A177" s="2" t="s">
         <v>392</v>
       </c>
@@ -14888,7 +14880,7 @@
       <c r="AM177" s="28"/>
       <c r="AN177" s="37"/>
     </row>
-    <row r="178" hidden="1" spans="1:40">
+    <row r="178" spans="1:40">
       <c r="A178" s="2" t="s">
         <v>394</v>
       </c>
@@ -14942,7 +14934,7 @@
       <c r="AM178" s="28"/>
       <c r="AN178" s="37"/>
     </row>
-    <row r="179" hidden="1" spans="1:40">
+    <row r="179" spans="1:40">
       <c r="A179" s="2" t="s">
         <v>396</v>
       </c>
@@ -14996,7 +14988,7 @@
       <c r="AM179" s="28"/>
       <c r="AN179" s="37"/>
     </row>
-    <row r="180" hidden="1" spans="1:40">
+    <row r="180" spans="1:40">
       <c r="A180" s="2" t="s">
         <v>398</v>
       </c>
@@ -15050,7 +15042,7 @@
       <c r="AM180" s="28"/>
       <c r="AN180" s="37"/>
     </row>
-    <row r="181" hidden="1" spans="1:40">
+    <row r="181" spans="1:40">
       <c r="A181" s="2" t="s">
         <v>400</v>
       </c>
@@ -15104,7 +15096,7 @@
       <c r="AM181" s="28"/>
       <c r="AN181" s="37"/>
     </row>
-    <row r="182" hidden="1" spans="1:40">
+    <row r="182" spans="1:40">
       <c r="A182" s="2" t="s">
         <v>402</v>
       </c>
@@ -15158,7 +15150,7 @@
       <c r="AM182" s="28"/>
       <c r="AN182" s="37"/>
     </row>
-    <row r="183" hidden="1" spans="1:40">
+    <row r="183" spans="1:40">
       <c r="A183" s="2" t="s">
         <v>404</v>
       </c>
@@ -15212,7 +15204,7 @@
       <c r="AM183" s="28"/>
       <c r="AN183" s="37"/>
     </row>
-    <row r="184" hidden="1" spans="1:40">
+    <row r="184" spans="1:40">
       <c r="A184" s="2" t="s">
         <v>406</v>
       </c>
@@ -15266,7 +15258,7 @@
       <c r="AM184" s="28"/>
       <c r="AN184" s="37"/>
     </row>
-    <row r="185" hidden="1" spans="1:40">
+    <row r="185" spans="1:40">
       <c r="A185" s="2" t="s">
         <v>408</v>
       </c>
@@ -15320,7 +15312,7 @@
       <c r="AM185" s="28"/>
       <c r="AN185" s="37"/>
     </row>
-    <row r="186" hidden="1" spans="1:40">
+    <row r="186" spans="1:40">
       <c r="A186" s="2" t="s">
         <v>410</v>
       </c>
@@ -15374,7 +15366,7 @@
       <c r="AM186" s="28"/>
       <c r="AN186" s="37"/>
     </row>
-    <row r="187" hidden="1" spans="1:40">
+    <row r="187" spans="1:40">
       <c r="A187" s="2" t="s">
         <v>412</v>
       </c>
@@ -15428,7 +15420,7 @@
       <c r="AM187" s="28"/>
       <c r="AN187" s="37"/>
     </row>
-    <row r="188" hidden="1" spans="1:40">
+    <row r="188" spans="1:40">
       <c r="A188" s="2" t="s">
         <v>414</v>
       </c>
@@ -15482,7 +15474,7 @@
       <c r="AM188" s="28"/>
       <c r="AN188" s="37"/>
     </row>
-    <row r="189" hidden="1" spans="1:40">
+    <row r="189" spans="1:40">
       <c r="A189" s="2" t="s">
         <v>416</v>
       </c>
@@ -15536,7 +15528,7 @@
       <c r="AM189" s="28"/>
       <c r="AN189" s="37"/>
     </row>
-    <row r="190" hidden="1" spans="1:40">
+    <row r="190" spans="1:40">
       <c r="A190" s="2" t="s">
         <v>418</v>
       </c>
@@ -15590,7 +15582,7 @@
       <c r="AM190" s="28"/>
       <c r="AN190" s="37"/>
     </row>
-    <row r="191" hidden="1" spans="1:40">
+    <row r="191" spans="1:40">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
@@ -15644,7 +15636,7 @@
       <c r="AM191" s="28"/>
       <c r="AN191" s="37"/>
     </row>
-    <row r="192" hidden="1" spans="1:40">
+    <row r="192" spans="1:40">
       <c r="A192" s="2" t="s">
         <v>422</v>
       </c>
@@ -15698,7 +15690,7 @@
       <c r="AM192" s="28"/>
       <c r="AN192" s="37"/>
     </row>
-    <row r="193" hidden="1" spans="1:40">
+    <row r="193" spans="1:40">
       <c r="A193" s="2" t="s">
         <v>424</v>
       </c>
@@ -15752,7 +15744,7 @@
       <c r="AM193" s="28"/>
       <c r="AN193" s="37"/>
     </row>
-    <row r="194" hidden="1" spans="1:40">
+    <row r="194" spans="1:40">
       <c r="A194" s="2" t="s">
         <v>426</v>
       </c>
@@ -15806,7 +15798,7 @@
       <c r="AM194" s="28"/>
       <c r="AN194" s="37"/>
     </row>
-    <row r="195" hidden="1" spans="1:40">
+    <row r="195" spans="1:40">
       <c r="A195" s="2" t="s">
         <v>428</v>
       </c>
@@ -15860,7 +15852,7 @@
       <c r="AM195" s="28"/>
       <c r="AN195" s="37"/>
     </row>
-    <row r="196" hidden="1" spans="1:40">
+    <row r="196" spans="1:40">
       <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
@@ -15968,7 +15960,7 @@
       <c r="AM197" s="28"/>
       <c r="AN197" s="37"/>
     </row>
-    <row r="198" hidden="1" spans="1:40">
+    <row r="198" spans="1:40">
       <c r="A198" s="2" t="s">
         <v>434</v>
       </c>
@@ -16022,7 +16014,7 @@
       <c r="AM198" s="28"/>
       <c r="AN198" s="37"/>
     </row>
-    <row r="199" hidden="1" spans="1:40">
+    <row r="199" spans="1:40">
       <c r="A199" s="2" t="s">
         <v>436</v>
       </c>
@@ -16076,7 +16068,7 @@
       <c r="AM199" s="28"/>
       <c r="AN199" s="37"/>
     </row>
-    <row r="200" hidden="1" spans="1:40">
+    <row r="200" spans="1:40">
       <c r="A200" s="2" t="s">
         <v>438</v>
       </c>
@@ -16130,7 +16122,7 @@
       <c r="AM200" s="28"/>
       <c r="AN200" s="37"/>
     </row>
-    <row r="201" hidden="1" spans="1:40">
+    <row r="201" spans="1:40">
       <c r="A201" s="2" t="s">
         <v>440</v>
       </c>
@@ -16238,7 +16230,7 @@
       <c r="AM202" s="28"/>
       <c r="AN202" s="37"/>
     </row>
-    <row r="203" hidden="1" spans="1:40">
+    <row r="203" spans="1:40">
       <c r="A203" s="2" t="s">
         <v>444</v>
       </c>
@@ -16292,7 +16284,7 @@
       <c r="AM203" s="28"/>
       <c r="AN203" s="37"/>
     </row>
-    <row r="204" hidden="1" spans="1:40">
+    <row r="204" spans="1:40">
       <c r="A204" s="2" t="s">
         <v>446</v>
       </c>
@@ -16346,7 +16338,7 @@
       <c r="AM204" s="28"/>
       <c r="AN204" s="37"/>
     </row>
-    <row r="205" hidden="1" spans="1:40">
+    <row r="205" spans="1:40">
       <c r="A205" s="2" t="s">
         <v>448</v>
       </c>
@@ -16400,7 +16392,7 @@
       <c r="AM205" s="28"/>
       <c r="AN205" s="37"/>
     </row>
-    <row r="206" hidden="1" spans="1:40">
+    <row r="206" spans="1:40">
       <c r="A206" s="2" t="s">
         <v>450</v>
       </c>
@@ -16454,7 +16446,7 @@
       <c r="AM206" s="28"/>
       <c r="AN206" s="37"/>
     </row>
-    <row r="207" hidden="1" spans="1:40">
+    <row r="207" spans="1:40">
       <c r="A207" s="2" t="s">
         <v>452</v>
       </c>
@@ -16508,7 +16500,7 @@
       <c r="AM207" s="28"/>
       <c r="AN207" s="37"/>
     </row>
-    <row r="208" hidden="1" spans="1:40">
+    <row r="208" spans="1:40">
       <c r="A208" s="2" t="s">
         <v>454</v>
       </c>
@@ -16562,7 +16554,7 @@
       <c r="AM208" s="28"/>
       <c r="AN208" s="37"/>
     </row>
-    <row r="209" hidden="1" spans="1:40">
+    <row r="209" spans="1:40">
       <c r="A209" s="2" t="s">
         <v>456</v>
       </c>
@@ -16616,7 +16608,7 @@
       <c r="AM209" s="28"/>
       <c r="AN209" s="37"/>
     </row>
-    <row r="210" hidden="1" spans="1:40">
+    <row r="210" spans="1:40">
       <c r="A210" s="2" t="s">
         <v>458</v>
       </c>
@@ -16670,7 +16662,7 @@
       <c r="AM210" s="28"/>
       <c r="AN210" s="37"/>
     </row>
-    <row r="211" hidden="1" spans="1:40">
+    <row r="211" spans="1:40">
       <c r="A211" s="2" t="s">
         <v>460</v>
       </c>
@@ -16724,7 +16716,7 @@
       <c r="AM211" s="28"/>
       <c r="AN211" s="37"/>
     </row>
-    <row r="212" hidden="1" spans="1:40">
+    <row r="212" spans="1:40">
       <c r="A212" s="2" t="s">
         <v>462</v>
       </c>
@@ -16778,7 +16770,7 @@
       <c r="AM212" s="28"/>
       <c r="AN212" s="37"/>
     </row>
-    <row r="213" hidden="1" spans="1:40">
+    <row r="213" spans="1:40">
       <c r="A213" s="2" t="s">
         <v>464</v>
       </c>
@@ -16922,7 +16914,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:40">
+    <row r="215" spans="1:40">
       <c r="A215" s="2" t="s">
         <v>468</v>
       </c>
@@ -16976,7 +16968,7 @@
       <c r="AM215" s="28"/>
       <c r="AN215" s="37"/>
     </row>
-    <row r="216" hidden="1" spans="1:40">
+    <row r="216" spans="1:40">
       <c r="A216" s="2" t="s">
         <v>470</v>
       </c>
@@ -17030,7 +17022,7 @@
       <c r="AM216" s="28"/>
       <c r="AN216" s="37"/>
     </row>
-    <row r="217" hidden="1" spans="1:40">
+    <row r="217" spans="1:40">
       <c r="A217" s="2" t="s">
         <v>472</v>
       </c>
@@ -17084,7 +17076,7 @@
       <c r="AM217" s="28"/>
       <c r="AN217" s="37"/>
     </row>
-    <row r="218" hidden="1" spans="1:40">
+    <row r="218" spans="1:40">
       <c r="A218" s="2" t="s">
         <v>474</v>
       </c>
@@ -17138,7 +17130,7 @@
       <c r="AM218" s="28"/>
       <c r="AN218" s="37"/>
     </row>
-    <row r="219" hidden="1" spans="1:40">
+    <row r="219" spans="1:40">
       <c r="A219" s="2" t="s">
         <v>476</v>
       </c>
@@ -17192,7 +17184,7 @@
       <c r="AM219" s="28"/>
       <c r="AN219" s="37"/>
     </row>
-    <row r="220" hidden="1" spans="1:40">
+    <row r="220" spans="1:40">
       <c r="A220" s="2" t="s">
         <v>478</v>
       </c>
@@ -17338,7 +17330,7 @@
       <c r="AM221" s="57"/>
       <c r="AN221" s="68"/>
     </row>
-    <row r="222" hidden="1" spans="1:40">
+    <row r="222" spans="1:40">
       <c r="A222" s="2" t="s">
         <v>482</v>
       </c>
@@ -17392,7 +17384,7 @@
       <c r="AM222" s="28"/>
       <c r="AN222" s="37"/>
     </row>
-    <row r="223" hidden="1" spans="1:40">
+    <row r="223" spans="1:40">
       <c r="A223" s="2" t="s">
         <v>484</v>
       </c>
@@ -17446,7 +17438,7 @@
       <c r="AM223" s="28"/>
       <c r="AN223" s="37"/>
     </row>
-    <row r="224" hidden="1" spans="1:40">
+    <row r="224" spans="1:40">
       <c r="A224" s="2" t="s">
         <v>486</v>
       </c>
@@ -17500,7 +17492,7 @@
       <c r="AM224" s="28"/>
       <c r="AN224" s="37"/>
     </row>
-    <row r="225" hidden="1" spans="1:40">
+    <row r="225" spans="1:40">
       <c r="A225" s="2" t="s">
         <v>488</v>
       </c>
@@ -17554,7 +17546,7 @@
       <c r="AM225" s="28"/>
       <c r="AN225" s="37"/>
     </row>
-    <row r="226" hidden="1" spans="1:40">
+    <row r="226" spans="1:40">
       <c r="A226" s="2" t="s">
         <v>490</v>
       </c>
@@ -17702,7 +17694,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:40">
+    <row r="228" spans="1:40">
       <c r="A228" s="2" t="s">
         <v>494</v>
       </c>
@@ -17756,7 +17748,7 @@
       <c r="AM228" s="28"/>
       <c r="AN228" s="37"/>
     </row>
-    <row r="229" hidden="1" spans="1:40">
+    <row r="229" spans="1:40">
       <c r="A229" s="2" t="s">
         <v>496</v>
       </c>
@@ -17810,7 +17802,7 @@
       <c r="AM229" s="28"/>
       <c r="AN229" s="37"/>
     </row>
-    <row r="230" hidden="1" spans="1:40">
+    <row r="230" spans="1:40">
       <c r="A230" s="2" t="s">
         <v>498</v>
       </c>
@@ -17864,7 +17856,7 @@
       <c r="AM230" s="28"/>
       <c r="AN230" s="37"/>
     </row>
-    <row r="231" hidden="1" spans="1:40">
+    <row r="231" spans="1:40">
       <c r="A231" s="2" t="s">
         <v>500</v>
       </c>
@@ -17972,7 +17964,7 @@
       <c r="AM232" s="28"/>
       <c r="AN232" s="37"/>
     </row>
-    <row r="233" hidden="1" spans="1:40">
+    <row r="233" spans="1:40">
       <c r="A233" s="2" t="s">
         <v>504</v>
       </c>
@@ -18026,7 +18018,7 @@
       <c r="AM233" s="28"/>
       <c r="AN233" s="37"/>
     </row>
-    <row r="234" hidden="1" spans="1:40">
+    <row r="234" spans="1:40">
       <c r="A234" s="2" t="s">
         <v>506</v>
       </c>
@@ -18080,7 +18072,7 @@
       <c r="AM234" s="28"/>
       <c r="AN234" s="37"/>
     </row>
-    <row r="235" hidden="1" spans="1:40">
+    <row r="235" spans="1:40">
       <c r="A235" s="2" t="s">
         <v>508</v>
       </c>
@@ -18134,7 +18126,7 @@
       <c r="AM235" s="28"/>
       <c r="AN235" s="37"/>
     </row>
-    <row r="236" hidden="1" spans="1:40">
+    <row r="236" spans="1:40">
       <c r="A236" s="2" t="s">
         <v>510</v>
       </c>
@@ -18188,7 +18180,7 @@
       <c r="AM236" s="28"/>
       <c r="AN236" s="37"/>
     </row>
-    <row r="237" hidden="1" spans="1:40">
+    <row r="237" spans="1:40">
       <c r="A237" s="2" t="s">
         <v>512</v>
       </c>
@@ -18296,7 +18288,7 @@
       <c r="AM238" s="28"/>
       <c r="AN238" s="37"/>
     </row>
-    <row r="239" hidden="1" spans="1:40">
+    <row r="239" spans="1:40">
       <c r="A239" s="2" t="s">
         <v>516</v>
       </c>
@@ -18350,7 +18342,7 @@
       <c r="AM239" s="28"/>
       <c r="AN239" s="37"/>
     </row>
-    <row r="240" hidden="1" spans="1:40">
+    <row r="240" spans="1:40">
       <c r="A240" s="2" t="s">
         <v>518</v>
       </c>
@@ -18404,7 +18396,7 @@
       <c r="AM240" s="28"/>
       <c r="AN240" s="37"/>
     </row>
-    <row r="241" hidden="1" spans="1:40">
+    <row r="241" spans="1:40">
       <c r="A241" s="2" t="s">
         <v>520</v>
       </c>
@@ -18458,7 +18450,7 @@
       <c r="AM241" s="28"/>
       <c r="AN241" s="37"/>
     </row>
-    <row r="242" hidden="1" spans="1:40">
+    <row r="242" spans="1:40">
       <c r="A242" s="2" t="s">
         <v>522</v>
       </c>
@@ -18512,7 +18504,7 @@
       <c r="AM242" s="28"/>
       <c r="AN242" s="37"/>
     </row>
-    <row r="243" hidden="1" spans="1:40">
+    <row r="243" spans="1:40">
       <c r="A243" s="2" t="s">
         <v>524</v>
       </c>
@@ -18566,7 +18558,7 @@
       <c r="AM243" s="28"/>
       <c r="AN243" s="37"/>
     </row>
-    <row r="244" hidden="1" spans="1:40">
+    <row r="244" spans="1:40">
       <c r="A244" s="2" t="s">
         <v>526</v>
       </c>
@@ -18620,7 +18612,7 @@
       <c r="AM244" s="28"/>
       <c r="AN244" s="37"/>
     </row>
-    <row r="245" hidden="1" spans="1:40">
+    <row r="245" spans="1:40">
       <c r="A245" s="2" t="s">
         <v>528</v>
       </c>
@@ -18674,7 +18666,7 @@
       <c r="AM245" s="28"/>
       <c r="AN245" s="37"/>
     </row>
-    <row r="246" hidden="1" spans="1:40">
+    <row r="246" spans="1:40">
       <c r="A246" s="2" t="s">
         <v>530</v>
       </c>
@@ -18808,7 +18800,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:40">
+    <row r="248" spans="1:40">
       <c r="A248" s="2" t="s">
         <v>534</v>
       </c>
@@ -18956,7 +18948,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:40">
+    <row r="250" spans="1:40">
       <c r="A250" s="2" t="s">
         <v>538</v>
       </c>
@@ -19010,7 +19002,7 @@
       <c r="AM250" s="28"/>
       <c r="AN250" s="37"/>
     </row>
-    <row r="251" hidden="1" spans="1:40">
+    <row r="251" spans="1:40">
       <c r="A251" s="2" t="s">
         <v>540</v>
       </c>
@@ -19064,7 +19056,7 @@
       <c r="AM251" s="28"/>
       <c r="AN251" s="37"/>
     </row>
-    <row r="252" hidden="1" spans="1:40">
+    <row r="252" spans="1:40">
       <c r="A252" s="2" t="s">
         <v>542</v>
       </c>
@@ -19172,7 +19164,7 @@
       <c r="AM253" s="28"/>
       <c r="AN253" s="37"/>
     </row>
-    <row r="254" hidden="1" spans="1:40">
+    <row r="254" spans="1:40">
       <c r="A254" s="2" t="s">
         <v>546</v>
       </c>
@@ -19226,7 +19218,7 @@
       <c r="AM254" s="28"/>
       <c r="AN254" s="37"/>
     </row>
-    <row r="255" hidden="1" spans="1:40">
+    <row r="255" spans="1:40">
       <c r="A255" s="2" t="s">
         <v>548</v>
       </c>
@@ -19280,7 +19272,7 @@
       <c r="AM255" s="28"/>
       <c r="AN255" s="37"/>
     </row>
-    <row r="256" hidden="1" spans="1:40">
+    <row r="256" spans="1:40">
       <c r="A256" s="2" t="s">
         <v>550</v>
       </c>
@@ -19334,7 +19326,7 @@
       <c r="AM256" s="28"/>
       <c r="AN256" s="37"/>
     </row>
-    <row r="257" hidden="1" spans="1:40">
+    <row r="257" spans="1:40">
       <c r="A257" s="2" t="s">
         <v>552</v>
       </c>
@@ -19388,7 +19380,7 @@
       <c r="AM257" s="28"/>
       <c r="AN257" s="37"/>
     </row>
-    <row r="258" hidden="1" spans="1:40">
+    <row r="258" spans="1:40">
       <c r="A258" s="2" t="s">
         <v>554</v>
       </c>
@@ -19442,7 +19434,7 @@
       <c r="AM258" s="28"/>
       <c r="AN258" s="37"/>
     </row>
-    <row r="259" hidden="1" spans="1:40">
+    <row r="259" spans="1:40">
       <c r="A259" s="2" t="s">
         <v>556</v>
       </c>
@@ -19496,7 +19488,7 @@
       <c r="AM259" s="28"/>
       <c r="AN259" s="37"/>
     </row>
-    <row r="260" hidden="1" spans="1:40">
+    <row r="260" spans="1:40">
       <c r="A260" s="2" t="s">
         <v>558</v>
       </c>
@@ -19550,7 +19542,7 @@
       <c r="AM260" s="28"/>
       <c r="AN260" s="37"/>
     </row>
-    <row r="261" hidden="1" spans="1:40">
+    <row r="261" spans="1:40">
       <c r="A261" s="2" t="s">
         <v>560</v>
       </c>
@@ -19604,7 +19596,7 @@
       <c r="AM261" s="28"/>
       <c r="AN261" s="37"/>
     </row>
-    <row r="262" hidden="1" spans="1:40">
+    <row r="262" spans="1:40">
       <c r="A262" s="2" t="s">
         <v>562</v>
       </c>
@@ -19658,7 +19650,7 @@
       <c r="AM262" s="28"/>
       <c r="AN262" s="37"/>
     </row>
-    <row r="263" hidden="1" spans="1:40">
+    <row r="263" spans="1:40">
       <c r="A263" s="2" t="s">
         <v>564</v>
       </c>
@@ -19712,7 +19704,7 @@
       <c r="AM263" s="28"/>
       <c r="AN263" s="37"/>
     </row>
-    <row r="264" hidden="1" spans="1:40">
+    <row r="264" spans="1:40">
       <c r="A264" s="2" t="s">
         <v>566</v>
       </c>
@@ -19766,7 +19758,7 @@
       <c r="AM264" s="28"/>
       <c r="AN264" s="37"/>
     </row>
-    <row r="265" hidden="1" spans="1:40">
+    <row r="265" spans="1:40">
       <c r="A265" s="2" t="s">
         <v>568</v>
       </c>
@@ -19874,7 +19866,7 @@
       <c r="AM266" s="28"/>
       <c r="AN266" s="37"/>
     </row>
-    <row r="267" hidden="1" spans="1:40">
+    <row r="267" spans="1:40">
       <c r="A267" s="2" t="s">
         <v>572</v>
       </c>
@@ -19928,7 +19920,7 @@
       <c r="AM267" s="28"/>
       <c r="AN267" s="37"/>
     </row>
-    <row r="268" hidden="1" spans="1:40">
+    <row r="268" spans="1:40">
       <c r="A268" s="2" t="s">
         <v>574</v>
       </c>
@@ -19982,7 +19974,7 @@
       <c r="AM268" s="28"/>
       <c r="AN268" s="37"/>
     </row>
-    <row r="269" hidden="1" spans="1:40">
+    <row r="269" spans="1:40">
       <c r="A269" s="2" t="s">
         <v>576</v>
       </c>
@@ -20036,7 +20028,7 @@
       <c r="AM269" s="28"/>
       <c r="AN269" s="37"/>
     </row>
-    <row r="270" hidden="1" spans="1:40">
+    <row r="270" spans="1:40">
       <c r="A270" s="2" t="s">
         <v>578</v>
       </c>
@@ -20090,7 +20082,7 @@
       <c r="AM270" s="28"/>
       <c r="AN270" s="37"/>
     </row>
-    <row r="271" hidden="1" spans="1:40">
+    <row r="271" spans="1:40">
       <c r="A271" s="2" t="s">
         <v>580</v>
       </c>
@@ -20144,7 +20136,7 @@
       <c r="AM271" s="28"/>
       <c r="AN271" s="37"/>
     </row>
-    <row r="272" hidden="1" spans="1:40">
+    <row r="272" spans="1:40">
       <c r="A272" s="2" t="s">
         <v>582</v>
       </c>
@@ -20198,7 +20190,7 @@
       <c r="AM272" s="28"/>
       <c r="AN272" s="37"/>
     </row>
-    <row r="273" hidden="1" spans="1:40">
+    <row r="273" spans="1:40">
       <c r="A273" s="2" t="s">
         <v>584</v>
       </c>
@@ -20252,7 +20244,7 @@
       <c r="AM273" s="28"/>
       <c r="AN273" s="37"/>
     </row>
-    <row r="274" hidden="1" spans="1:40">
+    <row r="274" spans="1:40">
       <c r="A274" s="2" t="s">
         <v>586</v>
       </c>
@@ -20306,7 +20298,7 @@
       <c r="AM274" s="28"/>
       <c r="AN274" s="37"/>
     </row>
-    <row r="275" hidden="1" spans="1:40">
+    <row r="275" spans="1:40">
       <c r="A275" s="2" t="s">
         <v>588</v>
       </c>
@@ -20360,7 +20352,7 @@
       <c r="AM275" s="28"/>
       <c r="AN275" s="37"/>
     </row>
-    <row r="276" hidden="1" spans="1:40">
+    <row r="276" spans="1:40">
       <c r="A276" s="2" t="s">
         <v>590</v>
       </c>
@@ -20414,7 +20406,7 @@
       <c r="AM276" s="28"/>
       <c r="AN276" s="37"/>
     </row>
-    <row r="277" hidden="1" spans="1:40">
+    <row r="277" spans="1:40">
       <c r="A277" s="2" t="s">
         <v>592</v>
       </c>
@@ -20522,7 +20514,7 @@
       <c r="AM278" s="28"/>
       <c r="AN278" s="37"/>
     </row>
-    <row r="279" hidden="1" spans="1:40">
+    <row r="279" spans="1:40">
       <c r="A279" s="2" t="s">
         <v>596</v>
       </c>
@@ -20576,7 +20568,7 @@
       <c r="AM279" s="28"/>
       <c r="AN279" s="37"/>
     </row>
-    <row r="280" hidden="1" spans="1:40">
+    <row r="280" spans="1:40">
       <c r="A280" s="2" t="s">
         <v>598</v>
       </c>
@@ -20630,7 +20622,7 @@
       <c r="AM280" s="28"/>
       <c r="AN280" s="37"/>
     </row>
-    <row r="281" hidden="1" spans="1:40">
+    <row r="281" spans="1:40">
       <c r="A281" s="2" t="s">
         <v>600</v>
       </c>
@@ -20684,7 +20676,7 @@
       <c r="AM281" s="28"/>
       <c r="AN281" s="37"/>
     </row>
-    <row r="282" hidden="1" spans="1:40">
+    <row r="282" spans="1:40">
       <c r="A282" s="2" t="s">
         <v>602</v>
       </c>
@@ -20738,7 +20730,7 @@
       <c r="AM282" s="28"/>
       <c r="AN282" s="37"/>
     </row>
-    <row r="283" hidden="1" spans="1:40">
+    <row r="283" spans="1:40">
       <c r="A283" s="2" t="s">
         <v>604</v>
       </c>
@@ -20792,7 +20784,7 @@
       <c r="AM283" s="28"/>
       <c r="AN283" s="37"/>
     </row>
-    <row r="284" hidden="1" spans="1:40">
+    <row r="284" spans="1:40">
       <c r="A284" s="2" t="s">
         <v>606</v>
       </c>
@@ -20846,7 +20838,7 @@
       <c r="AM284" s="28"/>
       <c r="AN284" s="37"/>
     </row>
-    <row r="285" hidden="1" spans="1:40">
+    <row r="285" spans="1:40">
       <c r="A285" s="2" t="s">
         <v>608</v>
       </c>
@@ -20900,7 +20892,7 @@
       <c r="AM285" s="28"/>
       <c r="AN285" s="37"/>
     </row>
-    <row r="286" hidden="1" spans="1:40">
+    <row r="286" spans="1:40">
       <c r="A286" s="2" t="s">
         <v>610</v>
       </c>
@@ -20954,7 +20946,7 @@
       <c r="AM286" s="28"/>
       <c r="AN286" s="37"/>
     </row>
-    <row r="287" hidden="1" spans="1:40">
+    <row r="287" spans="1:40">
       <c r="A287" s="2" t="s">
         <v>612</v>
       </c>
@@ -21008,7 +21000,7 @@
       <c r="AM287" s="28"/>
       <c r="AN287" s="37"/>
     </row>
-    <row r="288" hidden="1" spans="1:40">
+    <row r="288" spans="1:40">
       <c r="A288" s="2" t="s">
         <v>614</v>
       </c>
@@ -21062,7 +21054,7 @@
       <c r="AM288" s="28"/>
       <c r="AN288" s="37"/>
     </row>
-    <row r="289" hidden="1" spans="1:40">
+    <row r="289" spans="1:40">
       <c r="A289" s="2" t="s">
         <v>616</v>
       </c>
@@ -21116,7 +21108,7 @@
       <c r="AM289" s="28"/>
       <c r="AN289" s="37"/>
     </row>
-    <row r="290" hidden="1" spans="1:40">
+    <row r="290" spans="1:40">
       <c r="A290" s="2" t="s">
         <v>618</v>
       </c>
@@ -21170,7 +21162,7 @@
       <c r="AM290" s="28"/>
       <c r="AN290" s="37"/>
     </row>
-    <row r="291" hidden="1" spans="1:40">
+    <row r="291" spans="1:40">
       <c r="A291" s="2" t="s">
         <v>620</v>
       </c>
@@ -21224,7 +21216,7 @@
       <c r="AM291" s="28"/>
       <c r="AN291" s="37"/>
     </row>
-    <row r="292" hidden="1" spans="1:40">
+    <row r="292" spans="1:40">
       <c r="A292" s="2" t="s">
         <v>622</v>
       </c>
@@ -21278,7 +21270,7 @@
       <c r="AM292" s="28"/>
       <c r="AN292" s="37"/>
     </row>
-    <row r="293" hidden="1" spans="1:40">
+    <row r="293" spans="1:40">
       <c r="A293" s="2" t="s">
         <v>624</v>
       </c>
@@ -21332,7 +21324,7 @@
       <c r="AM293" s="28"/>
       <c r="AN293" s="37"/>
     </row>
-    <row r="294" hidden="1" spans="1:40">
+    <row r="294" spans="1:40">
       <c r="A294" s="2" t="s">
         <v>626</v>
       </c>
@@ -21386,7 +21378,7 @@
       <c r="AM294" s="28"/>
       <c r="AN294" s="37"/>
     </row>
-    <row r="295" hidden="1" spans="1:40">
+    <row r="295" spans="1:40">
       <c r="A295" s="2" t="s">
         <v>628</v>
       </c>
@@ -21440,7 +21432,7 @@
       <c r="AM295" s="28"/>
       <c r="AN295" s="37"/>
     </row>
-    <row r="296" hidden="1" spans="1:40">
+    <row r="296" spans="1:40">
       <c r="A296" s="2" t="s">
         <v>630</v>
       </c>
@@ -21494,7 +21486,7 @@
       <c r="AM296" s="28"/>
       <c r="AN296" s="37"/>
     </row>
-    <row r="297" hidden="1" spans="1:40">
+    <row r="297" spans="1:40">
       <c r="A297" s="2" t="s">
         <v>632</v>
       </c>
@@ -21548,7 +21540,7 @@
       <c r="AM297" s="28"/>
       <c r="AN297" s="37"/>
     </row>
-    <row r="298" hidden="1" spans="1:40">
+    <row r="298" spans="1:40">
       <c r="A298" s="2" t="s">
         <v>634</v>
       </c>
@@ -21602,7 +21594,7 @@
       <c r="AM298" s="28"/>
       <c r="AN298" s="37"/>
     </row>
-    <row r="299" hidden="1" spans="1:40">
+    <row r="299" spans="1:40">
       <c r="A299" s="2" t="s">
         <v>636</v>
       </c>
@@ -21656,7 +21648,7 @@
       <c r="AM299" s="28"/>
       <c r="AN299" s="37"/>
     </row>
-    <row r="300" hidden="1" spans="1:40">
+    <row r="300" spans="1:40">
       <c r="A300" s="2" t="s">
         <v>638</v>
       </c>
@@ -21710,7 +21702,7 @@
       <c r="AM300" s="28"/>
       <c r="AN300" s="37"/>
     </row>
-    <row r="301" hidden="1" spans="1:40">
+    <row r="301" spans="1:40">
       <c r="A301" s="2" t="s">
         <v>640</v>
       </c>
@@ -21840,7 +21832,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:40">
+    <row r="303" spans="1:40">
       <c r="A303" s="2" t="s">
         <v>644</v>
       </c>
@@ -21894,7 +21886,7 @@
       <c r="AM303" s="28"/>
       <c r="AN303" s="37"/>
     </row>
-    <row r="304" hidden="1" spans="1:40">
+    <row r="304" spans="1:40">
       <c r="A304" s="2" t="s">
         <v>646</v>
       </c>
@@ -22042,7 +22034,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:40">
+    <row r="306" spans="1:40">
       <c r="A306" s="2" t="s">
         <v>650</v>
       </c>
@@ -22096,7 +22088,7 @@
       <c r="AM306" s="28"/>
       <c r="AN306" s="37"/>
     </row>
-    <row r="307" hidden="1" spans="1:40">
+    <row r="307" spans="1:40">
       <c r="A307" s="2" t="s">
         <v>652</v>
       </c>
@@ -22150,7 +22142,7 @@
       <c r="AM307" s="28"/>
       <c r="AN307" s="37"/>
     </row>
-    <row r="308" hidden="1" spans="1:40">
+    <row r="308" spans="1:40">
       <c r="A308" s="2" t="s">
         <v>654</v>
       </c>
@@ -22204,7 +22196,7 @@
       <c r="AM308" s="28"/>
       <c r="AN308" s="37"/>
     </row>
-    <row r="309" hidden="1" spans="1:40">
+    <row r="309" spans="1:40">
       <c r="A309" s="2" t="s">
         <v>656</v>
       </c>
@@ -22258,7 +22250,7 @@
       <c r="AM309" s="28"/>
       <c r="AN309" s="37"/>
     </row>
-    <row r="310" hidden="1" spans="1:40">
+    <row r="310" spans="1:40">
       <c r="A310" s="2" t="s">
         <v>658</v>
       </c>
@@ -22312,7 +22304,7 @@
       <c r="AM310" s="28"/>
       <c r="AN310" s="37"/>
     </row>
-    <row r="311" hidden="1" spans="1:40">
+    <row r="311" spans="1:40">
       <c r="A311" s="2" t="s">
         <v>660</v>
       </c>
@@ -22366,7 +22358,7 @@
       <c r="AM311" s="28"/>
       <c r="AN311" s="37"/>
     </row>
-    <row r="312" hidden="1" spans="1:40">
+    <row r="312" spans="1:40">
       <c r="A312" s="2" t="s">
         <v>662</v>
       </c>
@@ -22420,7 +22412,7 @@
       <c r="AM312" s="28"/>
       <c r="AN312" s="37"/>
     </row>
-    <row r="313" hidden="1" spans="1:40">
+    <row r="313" spans="1:40">
       <c r="A313" s="2" t="s">
         <v>664</v>
       </c>
@@ -22474,7 +22466,7 @@
       <c r="AM313" s="28"/>
       <c r="AN313" s="37"/>
     </row>
-    <row r="314" hidden="1" spans="1:40">
+    <row r="314" spans="1:40">
       <c r="A314" s="2" t="s">
         <v>666</v>
       </c>
@@ -22528,7 +22520,7 @@
       <c r="AM314" s="28"/>
       <c r="AN314" s="37"/>
     </row>
-    <row r="315" hidden="1" spans="1:40">
+    <row r="315" spans="1:40">
       <c r="A315" s="2" t="s">
         <v>668</v>
       </c>
@@ -22582,7 +22574,7 @@
       <c r="AM315" s="28"/>
       <c r="AN315" s="37"/>
     </row>
-    <row r="316" hidden="1" spans="1:40">
+    <row r="316" spans="1:40">
       <c r="A316" s="2" t="s">
         <v>670</v>
       </c>
@@ -22636,7 +22628,7 @@
       <c r="AM316" s="28"/>
       <c r="AN316" s="37"/>
     </row>
-    <row r="317" hidden="1" spans="1:40">
+    <row r="317" spans="1:40">
       <c r="A317" s="2" t="s">
         <v>672</v>
       </c>
@@ -22690,7 +22682,7 @@
       <c r="AM317" s="28"/>
       <c r="AN317" s="37"/>
     </row>
-    <row r="318" hidden="1" spans="1:40">
+    <row r="318" spans="1:40">
       <c r="A318" s="2" t="s">
         <v>674</v>
       </c>
@@ -22744,7 +22736,7 @@
       <c r="AM318" s="28"/>
       <c r="AN318" s="37"/>
     </row>
-    <row r="319" hidden="1" spans="1:40">
+    <row r="319" spans="1:40">
       <c r="A319" s="2" t="s">
         <v>676</v>
       </c>
@@ -22881,7 +22873,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:40">
+    <row r="321" spans="1:40">
       <c r="A321" s="2" t="s">
         <v>680</v>
       </c>
@@ -22935,7 +22927,7 @@
       <c r="AM321" s="28"/>
       <c r="AN321" s="37"/>
     </row>
-    <row r="322" hidden="1" spans="1:40">
+    <row r="322" spans="1:40">
       <c r="A322" s="2" t="s">
         <v>682</v>
       </c>
@@ -22989,7 +22981,7 @@
       <c r="AM322" s="28"/>
       <c r="AN322" s="37"/>
     </row>
-    <row r="323" hidden="1" spans="1:40">
+    <row r="323" spans="1:40">
       <c r="A323" s="2" t="s">
         <v>684</v>
       </c>
@@ -23043,7 +23035,7 @@
       <c r="AM323" s="28"/>
       <c r="AN323" s="37"/>
     </row>
-    <row r="324" hidden="1" spans="1:40">
+    <row r="324" spans="1:40">
       <c r="A324" s="2" t="s">
         <v>686</v>
       </c>
@@ -23097,7 +23089,7 @@
       <c r="AM324" s="28"/>
       <c r="AN324" s="37"/>
     </row>
-    <row r="325" hidden="1" spans="1:40">
+    <row r="325" spans="1:40">
       <c r="A325" s="14" t="s">
         <v>688</v>
       </c>
@@ -23270,7 +23262,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:40">
+    <row r="327" spans="1:40">
       <c r="A327" s="2" t="s">
         <v>692</v>
       </c>
@@ -23324,7 +23316,7 @@
       <c r="AM327" s="28"/>
       <c r="AN327" s="37"/>
     </row>
-    <row r="328" hidden="1" spans="1:40">
+    <row r="328" spans="1:40">
       <c r="A328" s="2" t="s">
         <v>694</v>
       </c>
@@ -23378,7 +23370,7 @@
       <c r="AM328" s="28"/>
       <c r="AN328" s="37"/>
     </row>
-    <row r="329" hidden="1" spans="1:40">
+    <row r="329" spans="1:40">
       <c r="A329" s="2" t="s">
         <v>696</v>
       </c>
@@ -23432,7 +23424,7 @@
       <c r="AM329" s="28"/>
       <c r="AN329" s="37"/>
     </row>
-    <row r="330" hidden="1" spans="1:40">
+    <row r="330" spans="1:40">
       <c r="A330" s="2" t="s">
         <v>698</v>
       </c>
@@ -23486,7 +23478,7 @@
       <c r="AM330" s="28"/>
       <c r="AN330" s="37"/>
     </row>
-    <row r="331" hidden="1" spans="1:40">
+    <row r="331" spans="1:40">
       <c r="A331" s="2" t="s">
         <v>700</v>
       </c>
@@ -23540,7 +23532,7 @@
       <c r="AM331" s="28"/>
       <c r="AN331" s="37"/>
     </row>
-    <row r="332" hidden="1" spans="1:40">
+    <row r="332" spans="1:40">
       <c r="A332" s="2" t="s">
         <v>702</v>
       </c>
@@ -23594,7 +23586,7 @@
       <c r="AM332" s="28"/>
       <c r="AN332" s="37"/>
     </row>
-    <row r="333" hidden="1" spans="1:40">
+    <row r="333" spans="1:40">
       <c r="A333" s="2" t="s">
         <v>704</v>
       </c>
@@ -23648,7 +23640,7 @@
       <c r="AM333" s="28"/>
       <c r="AN333" s="37"/>
     </row>
-    <row r="334" hidden="1" spans="1:40">
+    <row r="334" spans="1:40">
       <c r="A334" s="2" t="s">
         <v>706</v>
       </c>
@@ -23702,7 +23694,7 @@
       <c r="AM334" s="28"/>
       <c r="AN334" s="37"/>
     </row>
-    <row r="335" hidden="1" spans="1:40">
+    <row r="335" spans="1:40">
       <c r="A335" s="2" t="s">
         <v>708</v>
       </c>
@@ -23756,7 +23748,7 @@
       <c r="AM335" s="28"/>
       <c r="AN335" s="37"/>
     </row>
-    <row r="336" hidden="1" spans="1:40">
+    <row r="336" spans="1:40">
       <c r="A336" s="2" t="s">
         <v>710</v>
       </c>
@@ -23810,7 +23802,7 @@
       <c r="AM336" s="28"/>
       <c r="AN336" s="37"/>
     </row>
-    <row r="337" hidden="1" spans="1:40">
+    <row r="337" spans="1:40">
       <c r="A337" s="2" t="s">
         <v>712</v>
       </c>
@@ -23864,7 +23856,7 @@
       <c r="AM337" s="28"/>
       <c r="AN337" s="37"/>
     </row>
-    <row r="338" hidden="1" spans="1:40">
+    <row r="338" spans="1:40">
       <c r="A338" s="2" t="s">
         <v>714</v>
       </c>
@@ -23918,7 +23910,7 @@
       <c r="AM338" s="28"/>
       <c r="AN338" s="37"/>
     </row>
-    <row r="339" hidden="1" spans="1:40">
+    <row r="339" spans="1:40">
       <c r="A339" s="2" t="s">
         <v>716</v>
       </c>
@@ -23972,7 +23964,7 @@
       <c r="AM339" s="28"/>
       <c r="AN339" s="37"/>
     </row>
-    <row r="340" hidden="1" spans="1:40">
+    <row r="340" spans="1:40">
       <c r="A340" s="2" t="s">
         <v>718</v>
       </c>
@@ -24026,7 +24018,7 @@
       <c r="AM340" s="28"/>
       <c r="AN340" s="37"/>
     </row>
-    <row r="341" hidden="1" spans="1:40">
+    <row r="341" spans="1:40">
       <c r="A341" s="2" t="s">
         <v>720</v>
       </c>
@@ -24080,7 +24072,7 @@
       <c r="AM341" s="28"/>
       <c r="AN341" s="37"/>
     </row>
-    <row r="342" hidden="1" spans="1:40">
+    <row r="342" spans="1:40">
       <c r="A342" s="2" t="s">
         <v>722</v>
       </c>
@@ -24134,7 +24126,7 @@
       <c r="AM342" s="28"/>
       <c r="AN342" s="37"/>
     </row>
-    <row r="343" hidden="1" spans="1:40">
+    <row r="343" spans="1:40">
       <c r="A343" s="2" t="s">
         <v>724</v>
       </c>
@@ -24242,7 +24234,7 @@
       <c r="AM344" s="28"/>
       <c r="AN344" s="37"/>
     </row>
-    <row r="345" hidden="1" spans="1:40">
+    <row r="345" spans="1:40">
       <c r="A345" s="2" t="s">
         <v>728</v>
       </c>
@@ -24296,7 +24288,7 @@
       <c r="AM345" s="28"/>
       <c r="AN345" s="37"/>
     </row>
-    <row r="346" hidden="1" spans="1:40">
+    <row r="346" spans="1:40">
       <c r="A346" s="2" t="s">
         <v>730</v>
       </c>
@@ -24350,7 +24342,7 @@
       <c r="AM346" s="28"/>
       <c r="AN346" s="37"/>
     </row>
-    <row r="347" hidden="1" spans="1:40">
+    <row r="347" spans="1:40">
       <c r="A347" s="2" t="s">
         <v>732</v>
       </c>
@@ -24404,7 +24396,7 @@
       <c r="AM347" s="28"/>
       <c r="AN347" s="37"/>
     </row>
-    <row r="348" hidden="1" spans="1:40">
+    <row r="348" spans="1:40">
       <c r="A348" s="2" t="s">
         <v>734</v>
       </c>
@@ -24458,7 +24450,7 @@
       <c r="AM348" s="28"/>
       <c r="AN348" s="37"/>
     </row>
-    <row r="349" hidden="1" spans="1:40">
+    <row r="349" spans="1:40">
       <c r="A349" s="2" t="s">
         <v>736</v>
       </c>
@@ -24512,7 +24504,7 @@
       <c r="AM349" s="28"/>
       <c r="AN349" s="37"/>
     </row>
-    <row r="350" hidden="1" spans="1:40">
+    <row r="350" spans="1:40">
       <c r="A350" s="2" t="s">
         <v>738</v>
       </c>
@@ -24566,7 +24558,7 @@
       <c r="AM350" s="28"/>
       <c r="AN350" s="37"/>
     </row>
-    <row r="351" hidden="1" spans="1:40">
+    <row r="351" spans="1:40">
       <c r="A351" s="2" t="s">
         <v>740</v>
       </c>
@@ -24710,7 +24702,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:40">
+    <row r="353" spans="1:40">
       <c r="A353" s="2" t="s">
         <v>744</v>
       </c>
@@ -24764,7 +24756,7 @@
       <c r="AM353" s="28"/>
       <c r="AN353" s="37"/>
     </row>
-    <row r="354" hidden="1" spans="1:40">
+    <row r="354" spans="1:40">
       <c r="A354" s="2" t="s">
         <v>746</v>
       </c>
@@ -24818,7 +24810,7 @@
       <c r="AM354" s="28"/>
       <c r="AN354" s="37"/>
     </row>
-    <row r="355" hidden="1" spans="1:40">
+    <row r="355" spans="1:40">
       <c r="A355" s="14" t="s">
         <v>748</v>
       </c>
@@ -24903,7 +24895,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:40">
+    <row r="356" spans="1:40">
       <c r="A356" s="2" t="s">
         <v>750</v>
       </c>
@@ -24957,7 +24949,7 @@
       <c r="AM356" s="28"/>
       <c r="AN356" s="37"/>
     </row>
-    <row r="357" hidden="1" spans="1:40">
+    <row r="357" spans="1:40">
       <c r="A357" s="2" t="s">
         <v>752</v>
       </c>
@@ -25011,7 +25003,7 @@
       <c r="AM357" s="28"/>
       <c r="AN357" s="37"/>
     </row>
-    <row r="358" hidden="1" spans="1:40">
+    <row r="358" spans="1:40">
       <c r="A358" s="2" t="s">
         <v>754</v>
       </c>
@@ -25065,7 +25057,7 @@
       <c r="AM358" s="28"/>
       <c r="AN358" s="37"/>
     </row>
-    <row r="359" hidden="1" spans="1:40">
+    <row r="359" spans="1:40">
       <c r="A359" s="2" t="s">
         <v>756</v>
       </c>
@@ -25119,7 +25111,7 @@
       <c r="AM359" s="28"/>
       <c r="AN359" s="37"/>
     </row>
-    <row r="360" hidden="1" spans="1:40">
+    <row r="360" spans="1:40">
       <c r="A360" s="2" t="s">
         <v>758</v>
       </c>
@@ -25173,7 +25165,7 @@
       <c r="AM360" s="28"/>
       <c r="AN360" s="37"/>
     </row>
-    <row r="361" hidden="1" spans="1:40">
+    <row r="361" spans="1:40">
       <c r="A361" s="2" t="s">
         <v>760</v>
       </c>
@@ -25227,7 +25219,7 @@
       <c r="AM361" s="28"/>
       <c r="AN361" s="37"/>
     </row>
-    <row r="362" hidden="1" spans="1:40">
+    <row r="362" spans="1:40">
       <c r="A362" s="2" t="s">
         <v>762</v>
       </c>
@@ -25281,7 +25273,7 @@
       <c r="AM362" s="28"/>
       <c r="AN362" s="37"/>
     </row>
-    <row r="363" hidden="1" spans="1:40">
+    <row r="363" spans="1:40">
       <c r="A363" s="2" t="s">
         <v>764</v>
       </c>
@@ -25335,7 +25327,7 @@
       <c r="AM363" s="28"/>
       <c r="AN363" s="37"/>
     </row>
-    <row r="364" hidden="1" spans="1:40">
+    <row r="364" spans="1:40">
       <c r="A364" s="2" t="s">
         <v>766</v>
       </c>
@@ -25389,7 +25381,7 @@
       <c r="AM364" s="28"/>
       <c r="AN364" s="37"/>
     </row>
-    <row r="365" hidden="1" spans="1:40">
+    <row r="365" spans="1:40">
       <c r="A365" s="2" t="s">
         <v>768</v>
       </c>
@@ -25443,7 +25435,7 @@
       <c r="AM365" s="28"/>
       <c r="AN365" s="37"/>
     </row>
-    <row r="366" hidden="1" spans="1:40">
+    <row r="366" spans="1:40">
       <c r="A366" s="2" t="s">
         <v>770</v>
       </c>
@@ -25497,7 +25489,7 @@
       <c r="AM366" s="28"/>
       <c r="AN366" s="37"/>
     </row>
-    <row r="367" hidden="1" spans="1:40">
+    <row r="367" spans="1:40">
       <c r="A367" s="2" t="s">
         <v>772</v>
       </c>
@@ -25551,7 +25543,7 @@
       <c r="AM367" s="28"/>
       <c r="AN367" s="37"/>
     </row>
-    <row r="368" hidden="1" spans="1:40">
+    <row r="368" spans="1:40">
       <c r="A368" s="2" t="s">
         <v>774</v>
       </c>
@@ -25605,7 +25597,7 @@
       <c r="AM368" s="28"/>
       <c r="AN368" s="37"/>
     </row>
-    <row r="369" hidden="1" spans="1:40">
+    <row r="369" spans="1:40">
       <c r="A369" s="2" t="s">
         <v>776</v>
       </c>
@@ -25659,7 +25651,7 @@
       <c r="AM369" s="28"/>
       <c r="AN369" s="37"/>
     </row>
-    <row r="370" hidden="1" spans="1:40">
+    <row r="370" spans="1:40">
       <c r="A370" s="2" t="s">
         <v>778</v>
       </c>
@@ -25713,7 +25705,7 @@
       <c r="AM370" s="28"/>
       <c r="AN370" s="37"/>
     </row>
-    <row r="371" hidden="1" spans="1:40">
+    <row r="371" spans="1:40">
       <c r="A371" s="2" t="s">
         <v>780</v>
       </c>
@@ -25767,7 +25759,7 @@
       <c r="AM371" s="28"/>
       <c r="AN371" s="37"/>
     </row>
-    <row r="372" hidden="1" spans="1:40">
+    <row r="372" spans="1:40">
       <c r="A372" s="2" t="s">
         <v>782</v>
       </c>
@@ -25821,7 +25813,7 @@
       <c r="AM372" s="28"/>
       <c r="AN372" s="37"/>
     </row>
-    <row r="373" hidden="1" spans="1:40">
+    <row r="373" spans="1:40">
       <c r="A373" s="2" t="s">
         <v>784</v>
       </c>
@@ -25875,7 +25867,7 @@
       <c r="AM373" s="28"/>
       <c r="AN373" s="37"/>
     </row>
-    <row r="374" hidden="1" spans="1:40">
+    <row r="374" spans="1:40">
       <c r="A374" s="2" t="s">
         <v>786</v>
       </c>
@@ -25929,7 +25921,7 @@
       <c r="AM374" s="28"/>
       <c r="AN374" s="37"/>
     </row>
-    <row r="375" hidden="1" spans="1:40">
+    <row r="375" spans="1:40">
       <c r="A375" s="2" t="s">
         <v>788</v>
       </c>
@@ -25983,7 +25975,7 @@
       <c r="AM375" s="28"/>
       <c r="AN375" s="37"/>
     </row>
-    <row r="376" hidden="1" spans="1:40">
+    <row r="376" spans="1:40">
       <c r="A376" s="2" t="s">
         <v>790</v>
       </c>
@@ -26037,7 +26029,7 @@
       <c r="AM376" s="28"/>
       <c r="AN376" s="37"/>
     </row>
-    <row r="377" hidden="1" spans="1:40">
+    <row r="377" spans="1:40">
       <c r="A377" s="2" t="s">
         <v>792</v>
       </c>
@@ -26162,7 +26154,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:40">
+    <row r="379" spans="1:40">
       <c r="A379" s="2" t="s">
         <v>796</v>
       </c>
@@ -26216,7 +26208,7 @@
       <c r="AM379" s="28"/>
       <c r="AN379" s="37"/>
     </row>
-    <row r="380" hidden="1" spans="1:40">
+    <row r="380" spans="1:40">
       <c r="A380" s="2" t="s">
         <v>798</v>
       </c>
@@ -26270,7 +26262,7 @@
       <c r="AM380" s="28"/>
       <c r="AN380" s="37"/>
     </row>
-    <row r="381" hidden="1" spans="1:40">
+    <row r="381" spans="1:40">
       <c r="A381" s="2" t="s">
         <v>800</v>
       </c>
@@ -26324,7 +26316,7 @@
       <c r="AM381" s="28"/>
       <c r="AN381" s="37"/>
     </row>
-    <row r="382" hidden="1" spans="1:40">
+    <row r="382" spans="1:40">
       <c r="A382" s="2" t="s">
         <v>802</v>
       </c>
@@ -26378,7 +26370,7 @@
       <c r="AM382" s="28"/>
       <c r="AN382" s="37"/>
     </row>
-    <row r="383" hidden="1" spans="1:40">
+    <row r="383" spans="1:40">
       <c r="A383" s="2" t="s">
         <v>804</v>
       </c>
@@ -26432,7 +26424,7 @@
       <c r="AM383" s="28"/>
       <c r="AN383" s="37"/>
     </row>
-    <row r="384" hidden="1" spans="1:40">
+    <row r="384" spans="1:40">
       <c r="A384" s="2" t="s">
         <v>806</v>
       </c>
@@ -26486,7 +26478,7 @@
       <c r="AM384" s="28"/>
       <c r="AN384" s="37"/>
     </row>
-    <row r="385" hidden="1" spans="1:40">
+    <row r="385" spans="1:40">
       <c r="A385" s="2" t="s">
         <v>808</v>
       </c>
@@ -26540,7 +26532,7 @@
       <c r="AM385" s="28"/>
       <c r="AN385" s="37"/>
     </row>
-    <row r="386" hidden="1" spans="1:40">
+    <row r="386" spans="1:40">
       <c r="A386" s="2" t="s">
         <v>810</v>
       </c>
@@ -26594,7 +26586,7 @@
       <c r="AM386" s="28"/>
       <c r="AN386" s="37"/>
     </row>
-    <row r="387" hidden="1" spans="1:40">
+    <row r="387" spans="1:40">
       <c r="A387" s="2" t="s">
         <v>812</v>
       </c>
@@ -26648,7 +26640,7 @@
       <c r="AM387" s="28"/>
       <c r="AN387" s="37"/>
     </row>
-    <row r="388" ht="17.6" hidden="1" spans="1:40">
+    <row r="388" ht="17.6" spans="1:40">
       <c r="A388" s="14" t="s">
         <v>814</v>
       </c>
@@ -26744,7 +26736,7 @@
       <c r="AM388" s="88"/>
       <c r="AN388" s="93"/>
     </row>
-    <row r="389" hidden="1" spans="1:40">
+    <row r="389" spans="1:40">
       <c r="A389" s="2" t="s">
         <v>816</v>
       </c>
@@ -26798,7 +26790,7 @@
       <c r="AM389" s="28"/>
       <c r="AN389" s="37"/>
     </row>
-    <row r="390" hidden="1" spans="1:40">
+    <row r="390" spans="1:40">
       <c r="A390" s="2" t="s">
         <v>818</v>
       </c>
@@ -26852,7 +26844,7 @@
       <c r="AM390" s="28"/>
       <c r="AN390" s="37"/>
     </row>
-    <row r="391" hidden="1" spans="1:40">
+    <row r="391" spans="1:40">
       <c r="A391" s="2" t="s">
         <v>820</v>
       </c>
@@ -26906,7 +26898,7 @@
       <c r="AM391" s="28"/>
       <c r="AN391" s="37"/>
     </row>
-    <row r="392" hidden="1" spans="1:40">
+    <row r="392" spans="1:40">
       <c r="A392" s="2" t="s">
         <v>822</v>
       </c>
@@ -26960,7 +26952,7 @@
       <c r="AM392" s="28"/>
       <c r="AN392" s="37"/>
     </row>
-    <row r="393" hidden="1" spans="1:40">
+    <row r="393" spans="1:40">
       <c r="A393" s="2" t="s">
         <v>824</v>
       </c>
@@ -27014,7 +27006,7 @@
       <c r="AM393" s="28"/>
       <c r="AN393" s="37"/>
     </row>
-    <row r="394" hidden="1" spans="1:40">
+    <row r="394" spans="1:40">
       <c r="A394" s="2" t="s">
         <v>826</v>
       </c>
@@ -27068,7 +27060,7 @@
       <c r="AM394" s="28"/>
       <c r="AN394" s="37"/>
     </row>
-    <row r="395" hidden="1" spans="1:40">
+    <row r="395" spans="1:40">
       <c r="A395" s="2" t="s">
         <v>828</v>
       </c>
@@ -27122,7 +27114,7 @@
       <c r="AM395" s="28"/>
       <c r="AN395" s="37"/>
     </row>
-    <row r="396" hidden="1" spans="1:40">
+    <row r="396" spans="1:40">
       <c r="A396" s="2" t="s">
         <v>830</v>
       </c>
@@ -27176,7 +27168,7 @@
       <c r="AM396" s="28"/>
       <c r="AN396" s="37"/>
     </row>
-    <row r="397" hidden="1" spans="1:40">
+    <row r="397" spans="1:40">
       <c r="A397" s="2" t="s">
         <v>832</v>
       </c>
@@ -27230,7 +27222,7 @@
       <c r="AM397" s="28"/>
       <c r="AN397" s="37"/>
     </row>
-    <row r="398" hidden="1" spans="1:40">
+    <row r="398" spans="1:40">
       <c r="A398" s="2" t="s">
         <v>834</v>
       </c>
@@ -27284,7 +27276,7 @@
       <c r="AM398" s="28"/>
       <c r="AN398" s="37"/>
     </row>
-    <row r="399" hidden="1" spans="1:40">
+    <row r="399" spans="1:40">
       <c r="A399" s="2" t="s">
         <v>836</v>
       </c>
@@ -27338,7 +27330,7 @@
       <c r="AM399" s="28"/>
       <c r="AN399" s="37"/>
     </row>
-    <row r="400" hidden="1" spans="1:40">
+    <row r="400" spans="1:40">
       <c r="A400" s="2" t="s">
         <v>838</v>
       </c>
@@ -27392,7 +27384,7 @@
       <c r="AM400" s="28"/>
       <c r="AN400" s="37"/>
     </row>
-    <row r="401" hidden="1" spans="1:40">
+    <row r="401" spans="1:40">
       <c r="A401" s="2" t="s">
         <v>840</v>
       </c>
@@ -27446,7 +27438,7 @@
       <c r="AM401" s="28"/>
       <c r="AN401" s="37"/>
     </row>
-    <row r="402" hidden="1" spans="1:40">
+    <row r="402" spans="1:40">
       <c r="A402" s="2" t="s">
         <v>842</v>
       </c>
@@ -27500,7 +27492,7 @@
       <c r="AM402" s="28"/>
       <c r="AN402" s="37"/>
     </row>
-    <row r="403" hidden="1" spans="1:40">
+    <row r="403" spans="1:40">
       <c r="A403" s="2" t="s">
         <v>844</v>
       </c>
@@ -27554,7 +27546,7 @@
       <c r="AM403" s="28"/>
       <c r="AN403" s="37"/>
     </row>
-    <row r="404" hidden="1" spans="1:40">
+    <row r="404" spans="1:40">
       <c r="A404" s="2" t="s">
         <v>846</v>
       </c>
@@ -27608,7 +27600,7 @@
       <c r="AM404" s="28"/>
       <c r="AN404" s="37"/>
     </row>
-    <row r="405" hidden="1" spans="1:40">
+    <row r="405" spans="1:40">
       <c r="A405" s="2" t="s">
         <v>848</v>
       </c>
@@ -27662,7 +27654,7 @@
       <c r="AM405" s="28"/>
       <c r="AN405" s="37"/>
     </row>
-    <row r="406" hidden="1" spans="1:40">
+    <row r="406" spans="1:40">
       <c r="A406" s="39" t="s">
         <v>850</v>
       </c>
@@ -27750,7 +27742,7 @@
       <c r="AM406" s="28"/>
       <c r="AN406" s="37"/>
     </row>
-    <row r="407" hidden="1" spans="1:40">
+    <row r="407" spans="1:40">
       <c r="A407" s="2" t="s">
         <v>852</v>
       </c>
@@ -27804,7 +27796,7 @@
       <c r="AM407" s="28"/>
       <c r="AN407" s="37"/>
     </row>
-    <row r="408" hidden="1" spans="1:40">
+    <row r="408" spans="1:40">
       <c r="A408" s="2" t="s">
         <v>854</v>
       </c>
@@ -27858,7 +27850,7 @@
       <c r="AM408" s="28"/>
       <c r="AN408" s="37"/>
     </row>
-    <row r="409" hidden="1" spans="1:40">
+    <row r="409" spans="1:40">
       <c r="A409" s="2" t="s">
         <v>856</v>
       </c>
@@ -27912,7 +27904,7 @@
       <c r="AM409" s="28"/>
       <c r="AN409" s="37"/>
     </row>
-    <row r="410" hidden="1" spans="1:40">
+    <row r="410" spans="1:40">
       <c r="A410" s="2" t="s">
         <v>858</v>
       </c>
@@ -27966,7 +27958,7 @@
       <c r="AM410" s="28"/>
       <c r="AN410" s="37"/>
     </row>
-    <row r="411" hidden="1" spans="1:40">
+    <row r="411" spans="1:40">
       <c r="A411" s="2" t="s">
         <v>860</v>
       </c>
@@ -28020,7 +28012,7 @@
       <c r="AM411" s="28"/>
       <c r="AN411" s="37"/>
     </row>
-    <row r="412" hidden="1" spans="1:40">
+    <row r="412" spans="1:40">
       <c r="A412" s="2" t="s">
         <v>862</v>
       </c>
@@ -28074,7 +28066,7 @@
       <c r="AM412" s="28"/>
       <c r="AN412" s="37"/>
     </row>
-    <row r="413" hidden="1" spans="1:40">
+    <row r="413" spans="1:40">
       <c r="A413" s="2" t="s">
         <v>864</v>
       </c>
@@ -28128,7 +28120,7 @@
       <c r="AM413" s="28"/>
       <c r="AN413" s="37"/>
     </row>
-    <row r="414" hidden="1" spans="1:40">
+    <row r="414" spans="1:40">
       <c r="A414" s="2" t="s">
         <v>866</v>
       </c>
@@ -28182,7 +28174,7 @@
       <c r="AM414" s="28"/>
       <c r="AN414" s="37"/>
     </row>
-    <row r="415" hidden="1" spans="1:40">
+    <row r="415" spans="1:40">
       <c r="A415" s="2" t="s">
         <v>868</v>
       </c>
@@ -28236,7 +28228,7 @@
       <c r="AM415" s="28"/>
       <c r="AN415" s="37"/>
     </row>
-    <row r="416" hidden="1" spans="1:40">
+    <row r="416" spans="1:40">
       <c r="A416" s="2" t="s">
         <v>870</v>
       </c>
@@ -28290,7 +28282,7 @@
       <c r="AM416" s="28"/>
       <c r="AN416" s="37"/>
     </row>
-    <row r="417" hidden="1" spans="1:40">
+    <row r="417" spans="1:40">
       <c r="A417" s="2" t="s">
         <v>872</v>
       </c>
@@ -28344,7 +28336,7 @@
       <c r="AM417" s="28"/>
       <c r="AN417" s="37"/>
     </row>
-    <row r="418" hidden="1" spans="1:40">
+    <row r="418" spans="1:40">
       <c r="A418" s="2" t="s">
         <v>874</v>
       </c>
@@ -28398,7 +28390,7 @@
       <c r="AM418" s="28"/>
       <c r="AN418" s="37"/>
     </row>
-    <row r="419" hidden="1" spans="1:40">
+    <row r="419" spans="1:40">
       <c r="A419" s="2" t="s">
         <v>876</v>
       </c>
@@ -28452,7 +28444,7 @@
       <c r="AM419" s="28"/>
       <c r="AN419" s="37"/>
     </row>
-    <row r="420" hidden="1" spans="1:40">
+    <row r="420" spans="1:40">
       <c r="A420" s="2" t="s">
         <v>878</v>
       </c>
@@ -28506,7 +28498,7 @@
       <c r="AM420" s="28"/>
       <c r="AN420" s="37"/>
     </row>
-    <row r="421" hidden="1" spans="1:40">
+    <row r="421" spans="1:40">
       <c r="A421" s="2" t="s">
         <v>880</v>
       </c>
@@ -28560,7 +28552,7 @@
       <c r="AM421" s="28"/>
       <c r="AN421" s="37"/>
     </row>
-    <row r="422" hidden="1" spans="1:40">
+    <row r="422" spans="1:40">
       <c r="A422" s="2" t="s">
         <v>882</v>
       </c>
@@ -28614,7 +28606,7 @@
       <c r="AM422" s="28"/>
       <c r="AN422" s="37"/>
     </row>
-    <row r="423" hidden="1" spans="1:40">
+    <row r="423" spans="1:40">
       <c r="A423" s="2" t="s">
         <v>884</v>
       </c>
@@ -28668,7 +28660,7 @@
       <c r="AM423" s="28"/>
       <c r="AN423" s="37"/>
     </row>
-    <row r="424" hidden="1" spans="1:40">
+    <row r="424" spans="1:40">
       <c r="A424" s="2" t="s">
         <v>886</v>
       </c>
@@ -28722,7 +28714,7 @@
       <c r="AM424" s="28"/>
       <c r="AN424" s="37"/>
     </row>
-    <row r="425" hidden="1" spans="1:40">
+    <row r="425" spans="1:40">
       <c r="A425" s="2" t="s">
         <v>888</v>
       </c>
@@ -28776,7 +28768,7 @@
       <c r="AM425" s="28"/>
       <c r="AN425" s="37"/>
     </row>
-    <row r="426" hidden="1" spans="1:40">
+    <row r="426" spans="1:40">
       <c r="A426" s="2" t="s">
         <v>890</v>
       </c>
@@ -28830,7 +28822,7 @@
       <c r="AM426" s="28"/>
       <c r="AN426" s="37"/>
     </row>
-    <row r="427" hidden="1" spans="1:40">
+    <row r="427" spans="1:40">
       <c r="A427" s="2" t="s">
         <v>892</v>
       </c>
@@ -28884,7 +28876,7 @@
       <c r="AM427" s="28"/>
       <c r="AN427" s="37"/>
     </row>
-    <row r="428" hidden="1" spans="1:40">
+    <row r="428" spans="1:40">
       <c r="A428" s="2" t="s">
         <v>894</v>
       </c>
@@ -28938,7 +28930,7 @@
       <c r="AM428" s="28"/>
       <c r="AN428" s="37"/>
     </row>
-    <row r="429" hidden="1" spans="1:40">
+    <row r="429" spans="1:40">
       <c r="A429" s="2" t="s">
         <v>896</v>
       </c>
@@ -28992,7 +28984,7 @@
       <c r="AM429" s="28"/>
       <c r="AN429" s="37"/>
     </row>
-    <row r="430" hidden="1" spans="1:40">
+    <row r="430" spans="1:40">
       <c r="A430" s="2" t="s">
         <v>898</v>
       </c>
@@ -29046,7 +29038,7 @@
       <c r="AM430" s="28"/>
       <c r="AN430" s="37"/>
     </row>
-    <row r="431" hidden="1" spans="1:40">
+    <row r="431" spans="1:40">
       <c r="A431" s="2" t="s">
         <v>900</v>
       </c>
@@ -29100,7 +29092,7 @@
       <c r="AM431" s="28"/>
       <c r="AN431" s="37"/>
     </row>
-    <row r="432" hidden="1" spans="1:40">
+    <row r="432" spans="1:40">
       <c r="A432" s="2" t="s">
         <v>902</v>
       </c>
@@ -29154,7 +29146,7 @@
       <c r="AM432" s="28"/>
       <c r="AN432" s="37"/>
     </row>
-    <row r="433" hidden="1" spans="1:40">
+    <row r="433" spans="1:40">
       <c r="A433" s="2" t="s">
         <v>904</v>
       </c>
@@ -29306,7 +29298,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:40">
+    <row r="435" spans="1:40">
       <c r="A435" s="2" t="s">
         <v>908</v>
       </c>
@@ -29360,7 +29352,7 @@
       <c r="AM435" s="28"/>
       <c r="AN435" s="37"/>
     </row>
-    <row r="436" hidden="1" spans="1:40">
+    <row r="436" spans="1:40">
       <c r="A436" s="2" t="s">
         <v>910</v>
       </c>
@@ -29414,7 +29406,7 @@
       <c r="AM436" s="28"/>
       <c r="AN436" s="37"/>
     </row>
-    <row r="437" hidden="1" spans="1:40">
+    <row r="437" spans="1:40">
       <c r="A437" s="2" t="s">
         <v>912</v>
       </c>
@@ -29468,7 +29460,7 @@
       <c r="AM437" s="28"/>
       <c r="AN437" s="37"/>
     </row>
-    <row r="438" hidden="1" spans="1:40">
+    <row r="438" spans="1:40">
       <c r="A438" s="2" t="s">
         <v>914</v>
       </c>
@@ -29522,7 +29514,7 @@
       <c r="AM438" s="28"/>
       <c r="AN438" s="37"/>
     </row>
-    <row r="439" hidden="1" spans="1:40">
+    <row r="439" spans="1:40">
       <c r="A439" s="2" t="s">
         <v>916</v>
       </c>
@@ -29576,7 +29568,7 @@
       <c r="AM439" s="28"/>
       <c r="AN439" s="37"/>
     </row>
-    <row r="440" hidden="1" spans="1:40">
+    <row r="440" spans="1:40">
       <c r="A440" s="2" t="s">
         <v>918</v>
       </c>
@@ -29630,7 +29622,7 @@
       <c r="AM440" s="28"/>
       <c r="AN440" s="37"/>
     </row>
-    <row r="441" hidden="1" spans="1:40">
+    <row r="441" spans="1:40">
       <c r="A441" s="2" t="s">
         <v>920</v>
       </c>
@@ -29684,7 +29676,7 @@
       <c r="AM441" s="28"/>
       <c r="AN441" s="37"/>
     </row>
-    <row r="442" hidden="1" spans="1:40">
+    <row r="442" spans="1:40">
       <c r="A442" s="2" t="s">
         <v>922</v>
       </c>
@@ -29738,7 +29730,7 @@
       <c r="AM442" s="28"/>
       <c r="AN442" s="37"/>
     </row>
-    <row r="443" hidden="1" spans="1:40">
+    <row r="443" spans="1:40">
       <c r="A443" s="2" t="s">
         <v>924</v>
       </c>
@@ -29792,7 +29784,7 @@
       <c r="AM443" s="28"/>
       <c r="AN443" s="37"/>
     </row>
-    <row r="444" hidden="1" spans="1:40">
+    <row r="444" spans="1:40">
       <c r="A444" s="2" t="s">
         <v>926</v>
       </c>
@@ -29846,7 +29838,7 @@
       <c r="AM444" s="28"/>
       <c r="AN444" s="37"/>
     </row>
-    <row r="445" hidden="1" spans="1:40">
+    <row r="445" spans="1:40">
       <c r="A445" s="2" t="s">
         <v>928</v>
       </c>
@@ -29900,7 +29892,7 @@
       <c r="AM445" s="28"/>
       <c r="AN445" s="37"/>
     </row>
-    <row r="446" hidden="1" spans="1:40">
+    <row r="446" spans="1:40">
       <c r="A446" s="2" t="s">
         <v>930</v>
       </c>
@@ -29954,7 +29946,7 @@
       <c r="AM446" s="28"/>
       <c r="AN446" s="37"/>
     </row>
-    <row r="447" hidden="1" spans="1:40">
+    <row r="447" spans="1:40">
       <c r="A447" s="2" t="s">
         <v>932</v>
       </c>
@@ -30008,7 +30000,7 @@
       <c r="AM447" s="28"/>
       <c r="AN447" s="37"/>
     </row>
-    <row r="448" hidden="1" spans="1:40">
+    <row r="448" spans="1:40">
       <c r="A448" s="2" t="s">
         <v>934</v>
       </c>
@@ -30062,7 +30054,7 @@
       <c r="AM448" s="28"/>
       <c r="AN448" s="37"/>
     </row>
-    <row r="449" hidden="1" spans="1:40">
+    <row r="449" spans="1:40">
       <c r="A449" s="2" t="s">
         <v>936</v>
       </c>
@@ -30116,7 +30108,7 @@
       <c r="AM449" s="28"/>
       <c r="AN449" s="37"/>
     </row>
-    <row r="450" hidden="1" spans="1:40">
+    <row r="450" spans="1:40">
       <c r="A450" s="2" t="s">
         <v>938</v>
       </c>
@@ -30170,7 +30162,7 @@
       <c r="AM450" s="28"/>
       <c r="AN450" s="37"/>
     </row>
-    <row r="451" hidden="1" spans="1:40">
+    <row r="451" spans="1:40">
       <c r="A451" s="2" t="s">
         <v>940</v>
       </c>
@@ -30224,7 +30216,7 @@
       <c r="AM451" s="28"/>
       <c r="AN451" s="37"/>
     </row>
-    <row r="452" hidden="1" spans="1:40">
+    <row r="452" spans="1:40">
       <c r="A452" s="2" t="s">
         <v>942</v>
       </c>
@@ -30278,7 +30270,7 @@
       <c r="AM452" s="28"/>
       <c r="AN452" s="37"/>
     </row>
-    <row r="453" hidden="1" spans="1:40">
+    <row r="453" spans="1:40">
       <c r="A453" s="2" t="s">
         <v>944</v>
       </c>
@@ -30332,7 +30324,7 @@
       <c r="AM453" s="28"/>
       <c r="AN453" s="37"/>
     </row>
-    <row r="454" hidden="1" spans="1:40">
+    <row r="454" spans="1:40">
       <c r="A454" s="2" t="s">
         <v>946</v>
       </c>
@@ -30386,7 +30378,7 @@
       <c r="AM454" s="28"/>
       <c r="AN454" s="37"/>
     </row>
-    <row r="455" hidden="1" spans="1:40">
+    <row r="455" spans="1:40">
       <c r="A455" s="2" t="s">
         <v>948</v>
       </c>
@@ -30440,7 +30432,7 @@
       <c r="AM455" s="28"/>
       <c r="AN455" s="37"/>
     </row>
-    <row r="456" hidden="1" spans="1:40">
+    <row r="456" spans="1:40">
       <c r="A456" s="2" t="s">
         <v>950</v>
       </c>
@@ -30494,7 +30486,7 @@
       <c r="AM456" s="28"/>
       <c r="AN456" s="37"/>
     </row>
-    <row r="457" hidden="1" spans="1:40">
+    <row r="457" spans="1:40">
       <c r="A457" s="2" t="s">
         <v>952</v>
       </c>
@@ -30548,7 +30540,7 @@
       <c r="AM457" s="28"/>
       <c r="AN457" s="37"/>
     </row>
-    <row r="458" hidden="1" spans="1:40">
+    <row r="458" spans="1:40">
       <c r="A458" s="2" t="s">
         <v>954</v>
       </c>
@@ -30602,7 +30594,7 @@
       <c r="AM458" s="28"/>
       <c r="AN458" s="37"/>
     </row>
-    <row r="459" hidden="1" spans="1:40">
+    <row r="459" spans="1:40">
       <c r="A459" s="2" t="s">
         <v>956</v>
       </c>
@@ -30656,7 +30648,7 @@
       <c r="AM459" s="28"/>
       <c r="AN459" s="37"/>
     </row>
-    <row r="460" hidden="1" spans="1:40">
+    <row r="460" spans="1:40">
       <c r="A460" s="2" t="s">
         <v>958</v>
       </c>
@@ -30710,7 +30702,7 @@
       <c r="AM460" s="28"/>
       <c r="AN460" s="37"/>
     </row>
-    <row r="461" hidden="1" spans="1:40">
+    <row r="461" spans="1:40">
       <c r="A461" s="2" t="s">
         <v>960</v>
       </c>
@@ -30764,7 +30756,7 @@
       <c r="AM461" s="28"/>
       <c r="AN461" s="37"/>
     </row>
-    <row r="462" hidden="1" spans="1:40">
+    <row r="462" spans="1:40">
       <c r="A462" s="2" t="s">
         <v>962</v>
       </c>
@@ -30818,7 +30810,7 @@
       <c r="AM462" s="28"/>
       <c r="AN462" s="37"/>
     </row>
-    <row r="463" hidden="1" spans="1:40">
+    <row r="463" spans="1:40">
       <c r="A463" s="2" t="s">
         <v>964</v>
       </c>
@@ -30872,7 +30864,7 @@
       <c r="AM463" s="28"/>
       <c r="AN463" s="37"/>
     </row>
-    <row r="464" hidden="1" spans="1:40">
+    <row r="464" spans="1:40">
       <c r="A464" s="2" t="s">
         <v>966</v>
       </c>
@@ -30926,7 +30918,7 @@
       <c r="AM464" s="28"/>
       <c r="AN464" s="37"/>
     </row>
-    <row r="465" hidden="1" spans="1:40">
+    <row r="465" spans="1:40">
       <c r="A465" s="2" t="s">
         <v>968</v>
       </c>
@@ -30980,7 +30972,7 @@
       <c r="AM465" s="28"/>
       <c r="AN465" s="37"/>
     </row>
-    <row r="466" hidden="1" spans="1:40">
+    <row r="466" spans="1:40">
       <c r="A466" s="2" t="s">
         <v>970</v>
       </c>
@@ -31034,7 +31026,7 @@
       <c r="AM466" s="28"/>
       <c r="AN466" s="37"/>
     </row>
-    <row r="467" hidden="1" spans="1:40">
+    <row r="467" spans="1:40">
       <c r="A467" s="2" t="s">
         <v>972</v>
       </c>
@@ -31088,7 +31080,7 @@
       <c r="AM467" s="28"/>
       <c r="AN467" s="37"/>
     </row>
-    <row r="468" hidden="1" spans="1:40">
+    <row r="468" spans="1:40">
       <c r="A468" s="2" t="s">
         <v>974</v>
       </c>
@@ -31142,7 +31134,7 @@
       <c r="AM468" s="28"/>
       <c r="AN468" s="37"/>
     </row>
-    <row r="469" hidden="1" spans="1:40">
+    <row r="469" spans="1:40">
       <c r="A469" s="2" t="s">
         <v>976</v>
       </c>
@@ -31196,7 +31188,7 @@
       <c r="AM469" s="28"/>
       <c r="AN469" s="37"/>
     </row>
-    <row r="470" hidden="1" spans="1:40">
+    <row r="470" spans="1:40">
       <c r="A470" s="2" t="s">
         <v>978</v>
       </c>
@@ -31250,7 +31242,7 @@
       <c r="AM470" s="28"/>
       <c r="AN470" s="37"/>
     </row>
-    <row r="471" hidden="1" spans="1:40">
+    <row r="471" spans="1:40">
       <c r="A471" s="2" t="s">
         <v>980</v>
       </c>
@@ -31304,7 +31296,7 @@
       <c r="AM471" s="28"/>
       <c r="AN471" s="37"/>
     </row>
-    <row r="472" hidden="1" spans="1:40">
+    <row r="472" spans="1:40">
       <c r="A472" s="2" t="s">
         <v>982</v>
       </c>
@@ -31358,7 +31350,7 @@
       <c r="AM472" s="28"/>
       <c r="AN472" s="37"/>
     </row>
-    <row r="473" hidden="1" spans="1:40">
+    <row r="473" spans="1:40">
       <c r="A473" s="2" t="s">
         <v>984</v>
       </c>
@@ -31412,7 +31404,7 @@
       <c r="AM473" s="28"/>
       <c r="AN473" s="37"/>
     </row>
-    <row r="474" hidden="1" spans="1:40">
+    <row r="474" spans="1:40">
       <c r="A474" s="2" t="s">
         <v>986</v>
       </c>
@@ -31466,7 +31458,7 @@
       <c r="AM474" s="28"/>
       <c r="AN474" s="37"/>
     </row>
-    <row r="475" hidden="1" spans="1:40">
+    <row r="475" spans="1:40">
       <c r="A475" s="2" t="s">
         <v>988</v>
       </c>
@@ -31520,7 +31512,7 @@
       <c r="AM475" s="28"/>
       <c r="AN475" s="37"/>
     </row>
-    <row r="476" hidden="1" spans="1:40">
+    <row r="476" spans="1:40">
       <c r="A476" s="2" t="s">
         <v>990</v>
       </c>
@@ -31574,7 +31566,7 @@
       <c r="AM476" s="28"/>
       <c r="AN476" s="37"/>
     </row>
-    <row r="477" hidden="1" spans="1:40">
+    <row r="477" spans="1:40">
       <c r="A477" s="2" t="s">
         <v>992</v>
       </c>
@@ -31628,7 +31620,7 @@
       <c r="AM477" s="28"/>
       <c r="AN477" s="37"/>
     </row>
-    <row r="478" hidden="1" spans="1:40">
+    <row r="478" spans="1:40">
       <c r="A478" s="2" t="s">
         <v>994</v>
       </c>
@@ -31682,7 +31674,7 @@
       <c r="AM478" s="28"/>
       <c r="AN478" s="37"/>
     </row>
-    <row r="479" hidden="1" spans="1:40">
+    <row r="479" spans="1:40">
       <c r="A479" s="2" t="s">
         <v>996</v>
       </c>
@@ -31736,7 +31728,7 @@
       <c r="AM479" s="28"/>
       <c r="AN479" s="37"/>
     </row>
-    <row r="480" hidden="1" spans="1:40">
+    <row r="480" spans="1:40">
       <c r="A480" s="2" t="s">
         <v>998</v>
       </c>
@@ -31790,7 +31782,7 @@
       <c r="AM480" s="28"/>
       <c r="AN480" s="37"/>
     </row>
-    <row r="481" hidden="1" spans="1:40">
+    <row r="481" spans="1:40">
       <c r="A481" s="2" t="s">
         <v>1000</v>
       </c>
@@ -31844,7 +31836,7 @@
       <c r="AM481" s="28"/>
       <c r="AN481" s="37"/>
     </row>
-    <row r="482" hidden="1" spans="1:40">
+    <row r="482" spans="1:40">
       <c r="A482" s="2" t="s">
         <v>1002</v>
       </c>
@@ -31898,7 +31890,7 @@
       <c r="AM482" s="28"/>
       <c r="AN482" s="37"/>
     </row>
-    <row r="483" hidden="1" spans="1:40">
+    <row r="483" spans="1:40">
       <c r="A483" s="2" t="s">
         <v>1004</v>
       </c>
@@ -31952,7 +31944,7 @@
       <c r="AM483" s="28"/>
       <c r="AN483" s="37"/>
     </row>
-    <row r="484" hidden="1" spans="1:40">
+    <row r="484" spans="1:40">
       <c r="A484" s="2" t="s">
         <v>1006</v>
       </c>
@@ -32092,7 +32084,7 @@
       <c r="AM485" s="88"/>
       <c r="AN485" s="93"/>
     </row>
-    <row r="486" hidden="1" spans="1:40">
+    <row r="486" spans="1:40">
       <c r="A486" s="2" t="s">
         <v>1010</v>
       </c>
@@ -32146,7 +32138,7 @@
       <c r="AM486" s="28"/>
       <c r="AN486" s="37"/>
     </row>
-    <row r="487" hidden="1" spans="1:40">
+    <row r="487" spans="1:40">
       <c r="A487" s="2" t="s">
         <v>1012</v>
       </c>
@@ -32200,7 +32192,7 @@
       <c r="AM487" s="28"/>
       <c r="AN487" s="37"/>
     </row>
-    <row r="488" hidden="1" spans="1:40">
+    <row r="488" spans="1:40">
       <c r="A488" s="2" t="s">
         <v>1014</v>
       </c>
@@ -32254,7 +32246,7 @@
       <c r="AM488" s="28"/>
       <c r="AN488" s="37"/>
     </row>
-    <row r="489" hidden="1" spans="1:40">
+    <row r="489" spans="1:40">
       <c r="A489" s="2" t="s">
         <v>1016</v>
       </c>
@@ -32308,7 +32300,7 @@
       <c r="AM489" s="28"/>
       <c r="AN489" s="37"/>
     </row>
-    <row r="490" hidden="1" spans="1:40">
+    <row r="490" spans="1:40">
       <c r="A490" s="2" t="s">
         <v>1018</v>
       </c>
@@ -32362,7 +32354,7 @@
       <c r="AM490" s="28"/>
       <c r="AN490" s="37"/>
     </row>
-    <row r="491" hidden="1" spans="1:40">
+    <row r="491" spans="1:40">
       <c r="A491" s="2" t="s">
         <v>1020</v>
       </c>
@@ -32416,7 +32408,7 @@
       <c r="AM491" s="28"/>
       <c r="AN491" s="37"/>
     </row>
-    <row r="492" hidden="1" spans="1:40">
+    <row r="492" spans="1:40">
       <c r="A492" s="2" t="s">
         <v>1022</v>
       </c>
@@ -32470,7 +32462,7 @@
       <c r="AM492" s="28"/>
       <c r="AN492" s="37"/>
     </row>
-    <row r="493" hidden="1" spans="1:40">
+    <row r="493" spans="1:40">
       <c r="A493" s="2" t="s">
         <v>1024</v>
       </c>
@@ -32524,7 +32516,7 @@
       <c r="AM493" s="28"/>
       <c r="AN493" s="37"/>
     </row>
-    <row r="494" hidden="1" spans="1:40">
+    <row r="494" spans="1:40">
       <c r="A494" s="2" t="s">
         <v>1026</v>
       </c>
@@ -32578,7 +32570,7 @@
       <c r="AM494" s="28"/>
       <c r="AN494" s="37"/>
     </row>
-    <row r="495" hidden="1" spans="1:40">
+    <row r="495" spans="1:40">
       <c r="A495" s="2" t="s">
         <v>1028</v>
       </c>
@@ -32632,7 +32624,7 @@
       <c r="AM495" s="28"/>
       <c r="AN495" s="37"/>
     </row>
-    <row r="496" hidden="1" spans="1:40">
+    <row r="496" spans="1:40">
       <c r="A496" s="2" t="s">
         <v>1030</v>
       </c>
@@ -32686,7 +32678,7 @@
       <c r="AM496" s="28"/>
       <c r="AN496" s="37"/>
     </row>
-    <row r="497" hidden="1" spans="1:40">
+    <row r="497" spans="1:40">
       <c r="A497" s="2" t="s">
         <v>1032</v>
       </c>
@@ -32740,7 +32732,7 @@
       <c r="AM497" s="28"/>
       <c r="AN497" s="37"/>
     </row>
-    <row r="498" hidden="1" spans="1:40">
+    <row r="498" spans="1:40">
       <c r="A498" s="2" t="s">
         <v>1034</v>
       </c>
@@ -32794,7 +32786,7 @@
       <c r="AM498" s="28"/>
       <c r="AN498" s="37"/>
     </row>
-    <row r="499" hidden="1" spans="1:40">
+    <row r="499" spans="1:40">
       <c r="A499" s="2" t="s">
         <v>1036</v>
       </c>
@@ -32848,7 +32840,7 @@
       <c r="AM499" s="28"/>
       <c r="AN499" s="37"/>
     </row>
-    <row r="500" hidden="1" spans="1:40">
+    <row r="500" spans="1:40">
       <c r="A500" s="2" t="s">
         <v>1038</v>
       </c>
@@ -32902,7 +32894,7 @@
       <c r="AM500" s="28"/>
       <c r="AN500" s="37"/>
     </row>
-    <row r="501" hidden="1" spans="1:40">
+    <row r="501" spans="1:40">
       <c r="A501" s="2" t="s">
         <v>1040</v>
       </c>
@@ -32956,7 +32948,7 @@
       <c r="AM501" s="28"/>
       <c r="AN501" s="37"/>
     </row>
-    <row r="502" hidden="1" spans="1:40">
+    <row r="502" spans="1:40">
       <c r="A502" s="2" t="s">
         <v>1042</v>
       </c>
@@ -33010,7 +33002,7 @@
       <c r="AM502" s="28"/>
       <c r="AN502" s="37"/>
     </row>
-    <row r="503" hidden="1" spans="1:40">
+    <row r="503" spans="1:40">
       <c r="A503" s="2" t="s">
         <v>1044</v>
       </c>
@@ -33064,7 +33056,7 @@
       <c r="AM503" s="28"/>
       <c r="AN503" s="37"/>
     </row>
-    <row r="504" hidden="1" spans="1:40">
+    <row r="504" spans="1:40">
       <c r="A504" s="2" t="s">
         <v>1046</v>
       </c>
@@ -33118,7 +33110,7 @@
       <c r="AM504" s="28"/>
       <c r="AN504" s="37"/>
     </row>
-    <row r="505" hidden="1" spans="1:40">
+    <row r="505" spans="1:40">
       <c r="A505" s="2" t="s">
         <v>1048</v>
       </c>
@@ -33172,7 +33164,7 @@
       <c r="AM505" s="28"/>
       <c r="AN505" s="37"/>
     </row>
-    <row r="506" hidden="1" spans="1:40">
+    <row r="506" spans="1:40">
       <c r="A506" s="2" t="s">
         <v>1050</v>
       </c>
@@ -33226,7 +33218,7 @@
       <c r="AM506" s="28"/>
       <c r="AN506" s="37"/>
     </row>
-    <row r="507" hidden="1" spans="1:40">
+    <row r="507" spans="1:40">
       <c r="A507" s="2" t="s">
         <v>1052</v>
       </c>
@@ -33280,7 +33272,7 @@
       <c r="AM507" s="28"/>
       <c r="AN507" s="37"/>
     </row>
-    <row r="508" hidden="1" spans="1:40">
+    <row r="508" spans="1:40">
       <c r="A508" s="2" t="s">
         <v>1054</v>
       </c>
@@ -33334,7 +33326,7 @@
       <c r="AM508" s="28"/>
       <c r="AN508" s="37"/>
     </row>
-    <row r="509" hidden="1" spans="1:40">
+    <row r="509" spans="1:40">
       <c r="A509" s="2" t="s">
         <v>1056</v>
       </c>
@@ -33388,7 +33380,7 @@
       <c r="AM509" s="28"/>
       <c r="AN509" s="37"/>
     </row>
-    <row r="510" hidden="1" spans="1:40">
+    <row r="510" spans="1:40">
       <c r="A510" s="2" t="s">
         <v>1058</v>
       </c>
@@ -33442,7 +33434,7 @@
       <c r="AM510" s="28"/>
       <c r="AN510" s="37"/>
     </row>
-    <row r="511" hidden="1" spans="1:40">
+    <row r="511" spans="1:40">
       <c r="A511" s="2" t="s">
         <v>1060</v>
       </c>
@@ -33496,7 +33488,7 @@
       <c r="AM511" s="28"/>
       <c r="AN511" s="37"/>
     </row>
-    <row r="512" hidden="1" spans="1:40">
+    <row r="512" spans="1:40">
       <c r="A512" s="2" t="s">
         <v>1062</v>
       </c>
@@ -33550,7 +33542,7 @@
       <c r="AM512" s="28"/>
       <c r="AN512" s="37"/>
     </row>
-    <row r="513" hidden="1" spans="1:40">
+    <row r="513" spans="1:40">
       <c r="A513" s="2" t="s">
         <v>1064</v>
       </c>
@@ -33604,7 +33596,7 @@
       <c r="AM513" s="28"/>
       <c r="AN513" s="37"/>
     </row>
-    <row r="514" hidden="1" spans="1:40">
+    <row r="514" spans="1:40">
       <c r="A514" s="2" t="s">
         <v>1066</v>
       </c>
@@ -33658,7 +33650,7 @@
       <c r="AM514" s="28"/>
       <c r="AN514" s="37"/>
     </row>
-    <row r="515" hidden="1" spans="1:40">
+    <row r="515" spans="1:40">
       <c r="A515" s="2" t="s">
         <v>1068</v>
       </c>
@@ -33712,7 +33704,7 @@
       <c r="AM515" s="28"/>
       <c r="AN515" s="37"/>
     </row>
-    <row r="516" hidden="1" spans="1:40">
+    <row r="516" spans="1:40">
       <c r="A516" s="2" t="s">
         <v>1070</v>
       </c>
@@ -33766,7 +33758,7 @@
       <c r="AM516" s="28"/>
       <c r="AN516" s="37"/>
     </row>
-    <row r="517" hidden="1" spans="1:40">
+    <row r="517" spans="1:40">
       <c r="A517" s="2" t="s">
         <v>1072</v>
       </c>
@@ -33903,7 +33895,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:40">
+    <row r="519" spans="1:40">
       <c r="A519" s="2" t="s">
         <v>1076</v>
       </c>
@@ -33957,7 +33949,7 @@
       <c r="AM519" s="28"/>
       <c r="AN519" s="37"/>
     </row>
-    <row r="520" hidden="1" spans="1:40">
+    <row r="520" spans="1:40">
       <c r="A520" s="2" t="s">
         <v>1078</v>
       </c>
@@ -34011,7 +34003,7 @@
       <c r="AM520" s="28"/>
       <c r="AN520" s="37"/>
     </row>
-    <row r="521" hidden="1" spans="1:40">
+    <row r="521" spans="1:40">
       <c r="A521" s="2" t="s">
         <v>1080</v>
       </c>
@@ -34065,7 +34057,7 @@
       <c r="AM521" s="28"/>
       <c r="AN521" s="37"/>
     </row>
-    <row r="522" hidden="1" spans="1:40">
+    <row r="522" spans="1:40">
       <c r="A522" s="2" t="s">
         <v>1082</v>
       </c>
@@ -34194,7 +34186,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:40">
+    <row r="524" spans="1:40">
       <c r="A524" s="2" t="s">
         <v>1086</v>
       </c>
@@ -34248,7 +34240,7 @@
       <c r="AM524" s="28"/>
       <c r="AN524" s="37"/>
     </row>
-    <row r="525" hidden="1" spans="1:40">
+    <row r="525" spans="1:40">
       <c r="A525" s="2" t="s">
         <v>1088</v>
       </c>
@@ -34302,7 +34294,7 @@
       <c r="AM525" s="28"/>
       <c r="AN525" s="37"/>
     </row>
-    <row r="526" hidden="1" spans="1:40">
+    <row r="526" spans="1:40">
       <c r="A526" s="2" t="s">
         <v>1090</v>
       </c>
@@ -34356,7 +34348,7 @@
       <c r="AM526" s="28"/>
       <c r="AN526" s="37"/>
     </row>
-    <row r="527" hidden="1" spans="1:40">
+    <row r="527" spans="1:40">
       <c r="A527" s="2" t="s">
         <v>1092</v>
       </c>
@@ -34410,7 +34402,7 @@
       <c r="AM527" s="28"/>
       <c r="AN527" s="37"/>
     </row>
-    <row r="528" hidden="1" spans="1:40">
+    <row r="528" spans="1:40">
       <c r="A528" s="2" t="s">
         <v>1094</v>
       </c>
@@ -34464,7 +34456,7 @@
       <c r="AM528" s="28"/>
       <c r="AN528" s="37"/>
     </row>
-    <row r="529" hidden="1" spans="1:40">
+    <row r="529" spans="1:40">
       <c r="A529" s="2" t="s">
         <v>1096</v>
       </c>
@@ -34594,7 +34586,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:40">
+    <row r="531" spans="1:40">
       <c r="A531" s="2" t="s">
         <v>1100</v>
       </c>
@@ -34649,11 +34641,6 @@
       <c r="AN531" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B531">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="26">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="O1:AG1"/>
@@ -34683,10 +34670,10 @@
     <mergeCell ref="AN1:AN3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -39278,10 +39265,10 @@
   </sheetData>
   <autoFilter ref="A1:A571"/>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B528">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
